--- a/5_results/5_1_original/predictors_set_9.xlsx
+++ b/5_results/5_1_original/predictors_set_9.xlsx
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.008016824722290039</v>
+        <v>0.009764909744262695</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.2101993560791016</v>
+        <v>0.2284586429595947</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008016824722290039</v>
+        <v>0.009764909744262695</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.2101993560791016</v>
+        <v>0.2284586429595947</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.006013154983520508</v>
+        <v>0.004414558410644531</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.1678452491760254</v>
+        <v>0.175544261932373</v>
       </c>
       <c r="S3" t="n">
-        <v>0.006013154983520508</v>
+        <v>0.004414558410644531</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.1678452491760254</v>
+        <v>0.175544261932373</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -1002,18 +1002,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.03353738784790039</v>
+        <v>0.03532814979553223</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.5396175384521484</v>
+        <v>0.5385348796844482</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03353738784790039</v>
+        <v>0.03532814979553223</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.5396175384521484</v>
+        <v>0.5385348796844482</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.006001949310302734</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002765178680419922</v>
+        <v>0.003136157989501953</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4097533226013184</v>
+        <v>0.4332082271575928</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006001949310302734</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002765178680419922</v>
+        <v>0.003136157989501953</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4097533226013184</v>
+        <v>0.4332082271575928</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1296,18 +1296,18 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.01846742630004883</v>
+        <v>0.01804709434509277</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.3516924381256104</v>
+        <v>0.3335130214691162</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01846742630004883</v>
+        <v>0.01804709434509277</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.3516924381256104</v>
+        <v>0.3335130214691162</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.03330278396606445</v>
+        <v>0.03109335899353027</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004003047943115234</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.90097188949585</v>
+        <v>2.136853694915771</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03330278396606445</v>
+        <v>0.03109335899353027</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004003047943115234</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.90097188949585</v>
+        <v>2.136853694915771</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1592,22 +1592,22 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.01378154754638672</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.210801839828491</v>
+        <v>1.220125198364258</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01378154754638672</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.210801839828491</v>
+        <v>1.220125198364258</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1742,22 +1742,22 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.01885676383972168</v>
+        <v>0.003027677536010742</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.00375056266784668</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5945808887481689</v>
+        <v>0.6138134002685547</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01885676383972168</v>
+        <v>0.003027677536010742</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.00375056266784668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5945808887481689</v>
+        <v>0.6138134002685547</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1890,18 +1890,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.04037189483642578</v>
+        <v>0.04158186912536621</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.669492244720459</v>
+        <v>0.6739380359649658</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04037189483642578</v>
+        <v>0.04158186912536621</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>0.669492244720459</v>
+        <v>0.6739380359649658</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2036,22 +2036,22 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0117790699005127</v>
+        <v>0.01349735260009766</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01527523994445801</v>
+        <v>0.007996559143066406</v>
       </c>
       <c r="R11" t="n">
-        <v>1.317964553833008</v>
+        <v>1.415357828140259</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0117790699005127</v>
+        <v>0.01349735260009766</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01527523994445801</v>
+        <v>0.007996559143066406</v>
       </c>
       <c r="U11" t="n">
-        <v>1.317964553833008</v>
+        <v>1.415357828140259</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2184,18 +2184,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.1460585594177246</v>
+        <v>0.1432490348815918</v>
       </c>
       <c r="S12" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.1460585594177246</v>
+        <v>0.1432490348815918</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2328,18 +2328,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.004012584686279297</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.6579325199127197</v>
+        <v>0.6493589878082275</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004012584686279297</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.6579325199127197</v>
+        <v>0.6493589878082275</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2472,18 +2472,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.005755424499511719</v>
+        <v>0.00689697265625</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>2.368959903717041</v>
+        <v>2.424941062927246</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005755424499511719</v>
+        <v>0.00689697265625</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.368959903717041</v>
+        <v>2.424941062927246</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2618,22 +2618,22 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.01165962219238281</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.451174259185791</v>
+        <v>1.522783517837524</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.01165962219238281</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.451174259185791</v>
+        <v>1.522783517837524</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2766,18 +2766,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.04357242584228516</v>
+        <v>0.04414153099060059</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.5734121799468994</v>
+        <v>0.5874779224395752</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04357242584228516</v>
+        <v>0.04414153099060059</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.5734121799468994</v>
+        <v>0.5874779224395752</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2910,18 +2910,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.008685111999511719</v>
+        <v>0.006718873977661133</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0.2157185077667236</v>
+        <v>0.2188212871551514</v>
       </c>
       <c r="S17" t="n">
-        <v>0.008685111999511719</v>
+        <v>0.006718873977661133</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>0.2157185077667236</v>
+        <v>0.2188212871551514</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6637132167816162</v>
+        <v>0.6698095798492432</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6637132167816162</v>
+        <v>0.6698095798492432</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3206,22 +3206,22 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.006011009216308594</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.641888618469238</v>
+        <v>3.739917039871216</v>
       </c>
       <c r="S19" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.006011009216308594</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.641888618469238</v>
+        <v>3.739917039871216</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3354,18 +3354,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.04838919639587402</v>
+        <v>0.04856204986572266</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.8268132209777832</v>
+        <v>0.8537142276763916</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04838919639587402</v>
+        <v>0.04856204986572266</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.8268132209777832</v>
+        <v>0.8537142276763916</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3498,18 +3498,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0669553279876709</v>
+        <v>0.0677645206451416</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.6956610679626465</v>
+        <v>0.6806149482727051</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0669553279876709</v>
+        <v>0.0677645206451416</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.6956610679626465</v>
+        <v>0.6806149482727051</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3642,18 +3642,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.004758358001708984</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.1718273162841797</v>
+        <v>0.1824562549591064</v>
       </c>
       <c r="S22" t="n">
-        <v>0.004758358001708984</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.1718273162841797</v>
+        <v>0.1824562549591064</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3788,22 +3788,22 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.04926800727844238</v>
+        <v>0.06256532669067383</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03986454010009766</v>
+        <v>0.03949904441833496</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8506925106048584</v>
+        <v>0.8511745929718018</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04926800727844238</v>
+        <v>0.06256532669067383</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03986454010009766</v>
+        <v>0.03949904441833496</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8506925106048584</v>
+        <v>0.8511745929718018</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3936,18 +3936,18 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.003000974655151367</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.5115551948547363</v>
+        <v>0.5114164352416992</v>
       </c>
       <c r="S24" t="n">
-        <v>0.003000974655151367</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.5115551948547363</v>
+        <v>0.5114164352416992</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -4080,18 +4080,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0617058277130127</v>
+        <v>0.04995584487915039</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>0.7217798233032227</v>
+        <v>0.7294414043426514</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0617058277130127</v>
+        <v>0.04995584487915039</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.7217798233032227</v>
+        <v>0.7294414043426514</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4224,18 +4224,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.004750490188598633</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.690047025680542</v>
+        <v>0.7304222583770752</v>
       </c>
       <c r="S26" t="n">
-        <v>0.004750490188598633</v>
+        <v>0</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.690047025680542</v>
+        <v>0.7304222583770752</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4368,18 +4368,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.004009008407592773</v>
+        <v>0.003755569458007812</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>0.3517272472381592</v>
+        <v>0.368382453918457</v>
       </c>
       <c r="S27" t="n">
-        <v>0.004009008407592773</v>
+        <v>0.003755569458007812</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.3517272472381592</v>
+        <v>0.368382453918457</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4514,22 +4514,22 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.008046865463256836</v>
+        <v>0.007347345352172852</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002002954483032227</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4680359363555908</v>
+        <v>0.4583785533905029</v>
       </c>
       <c r="S28" t="n">
-        <v>0.008046865463256836</v>
+        <v>0.007347345352172852</v>
       </c>
       <c r="T28" t="n">
-        <v>0.002002954483032227</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.4680359363555908</v>
+        <v>0.4583785533905029</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4664,22 +4664,22 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.03555989265441895</v>
+        <v>0.03697061538696289</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.007284164428710938</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.857820510864258</v>
+        <v>2.105818510055542</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03555989265441895</v>
+        <v>0.03697061538696289</v>
       </c>
       <c r="T29" t="n">
-        <v>0.007284164428710938</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.857820510864258</v>
+        <v>2.105818510055542</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4814,22 +4814,22 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.06096601486206055</v>
+        <v>0.0517733097076416</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.05494022369384766</v>
+        <v>0.04128623008728027</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7570061683654785</v>
+        <v>0.7237045764923096</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06096601486206055</v>
+        <v>0.0517733097076416</v>
       </c>
       <c r="T30" t="n">
-        <v>0.05494022369384766</v>
+        <v>0.04128623008728027</v>
       </c>
       <c r="U30" t="n">
-        <v>0.7570061683654785</v>
+        <v>0.7237045764923096</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4962,18 +4962,18 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.01217818260192871</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>0.72409987449646</v>
+        <v>0.7450516223907471</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01217818260192871</v>
+        <v>0</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.72409987449646</v>
+        <v>0.7450516223907471</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -5106,18 +5106,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.009287357330322266</v>
+        <v>0.008022785186767578</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.09150028228759766</v>
+        <v>0.06837081909179688</v>
       </c>
       <c r="S32" t="n">
-        <v>0.009287357330322266</v>
+        <v>0.008022785186767578</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.09150028228759766</v>
+        <v>0.06837081909179688</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5250,18 +5250,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01252031326293945</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.1017155647277832</v>
+        <v>0.09970307350158691</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01252031326293945</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.1017155647277832</v>
+        <v>0.09970307350158691</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5394,18 +5394,18 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.01977849006652832</v>
+        <v>0.01964330673217773</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>0.1736459732055664</v>
+        <v>0.1788473129272461</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01977849006652832</v>
+        <v>0.01964330673217773</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.1736459732055664</v>
+        <v>0.1788473129272461</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5538,18 +5538,18 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.003748178482055664</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>1.174164056777954</v>
+        <v>1.185053825378418</v>
       </c>
       <c r="S35" t="n">
-        <v>0.003748178482055664</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>1.174164056777954</v>
+        <v>1.185053825378418</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5636,7 +5636,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>CatBoost_r12</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5646,37 +5646,37 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7648809523809523</v>
+        <v>0.8363095238095238</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I36" t="n">
         <v>0.8486394557823129</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.234781834867406</v>
+        <v>-0.2554603080539672</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4943513578012402</v>
+        <v>0.4552456466802924</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9037579704246371</v>
+        <v>0.9129067591024113</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.002006292343139648</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.002087116241455078</v>
       </c>
       <c r="R36" t="n">
-        <v>1.385648727416992</v>
+        <v>2.174515724182129</v>
       </c>
       <c r="S36" t="n">
-        <v>0.002006292343139648</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.002087116241455078</v>
       </c>
       <c r="U36" t="n">
-        <v>1.385648727416992</v>
+        <v>2.174515724182129</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="Y36" t="n">
         <v>19</v>
@@ -5720,16 +5720,16 @@
         <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>571632</v>
+        <v>1417828</v>
       </c>
       <c r="AC36" t="n">
-        <v>571632</v>
+        <v>1417828</v>
       </c>
       <c r="AD36" t="n">
-        <v>571632</v>
+        <v>1417828</v>
       </c>
       <c r="AE36" t="n">
-        <v>571632</v>
+        <v>1417828</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>{'iterations': 472}</t>
+          <t>{'iterations': 639}</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
@@ -5786,7 +5786,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r156_FULL</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5796,54 +5796,60 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7648809523809523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I37" t="n">
         <v>0.8486394557823129</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.3710948649413905</v>
+        <v>-0.234781834867406</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2508629161698942</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0.4943513578012402</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9037579704246371</v>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.01201939582824707</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>0.004959583282470703</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
       <c r="R37" t="n">
-        <v>0.882256031036377</v>
+        <v>1.400787830352783</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01201939582824707</v>
-      </c>
-      <c r="T37" t="inlineStr"/>
+        <v>0.004959583282470703</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
       <c r="U37" t="n">
-        <v>0.882256031036377</v>
+        <v>1.400787830352783</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5852,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="Y37" t="n">
         <v>19</v>
@@ -5864,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="AB37" t="n">
-        <v>80813</v>
+        <v>571632</v>
       </c>
       <c r="AC37" t="n">
-        <v>80813</v>
+        <v>571632</v>
       </c>
       <c r="AD37" t="n">
-        <v>80813</v>
+        <v>571632</v>
       </c>
       <c r="AE37" t="n">
-        <v>80813</v>
+        <v>571632</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -5883,7 +5889,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr"/>
@@ -5894,17 +5900,17 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.5055288166864152, 'ps': 0.06572612802222005, 'bs': 2048, 'lr': 0.0047762208542912405, 'epochs': 44, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 17}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>{'epochs': 44, 'best_epoch': 17}</t>
+          <t>{'iterations': 472}</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
@@ -5930,7 +5936,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CatBoost_r13</t>
+          <t>NeuralNetFastAI_r156_FULL</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5940,60 +5946,54 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7648809523809523</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I38" t="n">
         <v>0.8486394557823129</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.3071990857705849</v>
+        <v>-0.3710948649413905</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3608713044235439</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.9137669722588201</v>
-      </c>
+        <v>0.2508629161698942</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.01377391815185547</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01102185249328613</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>18.98633646965027</v>
+        <v>0.8912248611450195</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01377391815185547</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01102185249328613</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>18.98633646965027</v>
+        <v>0.8912248611450195</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="Y38" t="n">
         <v>19</v>
@@ -6014,16 +6014,16 @@
         <v>1</v>
       </c>
       <c r="AB38" t="n">
-        <v>12676276</v>
+        <v>80813</v>
       </c>
       <c r="AC38" t="n">
-        <v>12676276</v>
+        <v>80813</v>
       </c>
       <c r="AD38" t="n">
-        <v>12676276</v>
+        <v>80813</v>
       </c>
       <c r="AE38" t="n">
-        <v>12676276</v>
+        <v>80813</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr"/>
@@ -6044,17 +6044,17 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'layers': [400], 'emb_drop': 0.5055288166864152, 'ps': 0.06572612802222005, 'bs': 2048, 'lr': 0.0047762208542912405, 'epochs': 44, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 17}</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>{'iterations': 2983}</t>
+          <t>{'epochs': 44, 'best_epoch': 17}</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CatBoost_r12</t>
+          <t>CatBoost_r13</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6090,37 +6090,37 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8363095238095238</v>
+        <v>0.7648809523809523</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I39" t="n">
         <v>0.8486394557823129</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2554603080539672</v>
+        <v>-0.3071990857705849</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4552456466802924</v>
+        <v>0.3608713044235439</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9129067591024113</v>
+        <v>0.9137669722588201</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -6128,22 +6128,22 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0138707160949707</v>
+        <v>0.01957011222839355</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.003007411956787109</v>
       </c>
       <c r="R39" t="n">
-        <v>2.125741481781006</v>
+        <v>19.16980314254761</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0138707160949707</v>
+        <v>0.01957011222839355</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.003007411956787109</v>
       </c>
       <c r="U39" t="n">
-        <v>2.125741481781006</v>
+        <v>19.16980314254761</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
         <v>19</v>
@@ -6164,16 +6164,16 @@
         <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>1417828</v>
+        <v>12676276</v>
       </c>
       <c r="AC39" t="n">
-        <v>1417828</v>
+        <v>12676276</v>
       </c>
       <c r="AD39" t="n">
-        <v>1417828</v>
+        <v>12676276</v>
       </c>
       <c r="AE39" t="n">
-        <v>1417828</v>
+        <v>12676276</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -6194,12 +6194,12 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>{'iterations': 639}</t>
+          <t>{'iterations': 2983}</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -6276,18 +6276,18 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.6662082672119141</v>
+        <v>0.6898238658905029</v>
       </c>
       <c r="S40" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.6662082672119141</v>
+        <v>0.6898238658905029</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6420,18 +6420,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.3502328395843506</v>
+        <v>0.3505854606628418</v>
       </c>
       <c r="S41" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.3502328395843506</v>
+        <v>0.3505854606628418</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6564,18 +6564,18 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.03076267242431641</v>
+        <v>0.02955198287963867</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.3365616798400879</v>
+        <v>0.3329806327819824</v>
       </c>
       <c r="S42" t="n">
-        <v>0.03076267242431641</v>
+        <v>0.02955198287963867</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.3365616798400879</v>
+        <v>0.3329806327819824</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6708,18 +6708,18 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.08114743232727051</v>
+        <v>0.0816798210144043</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>0.9471683502197266</v>
+        <v>0.9672036170959473</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08114743232727051</v>
+        <v>0.0816798210144043</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.9471683502197266</v>
+        <v>0.9672036170959473</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6852,18 +6852,18 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.01203370094299316</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1.235630989074707</v>
+        <v>1.270035982131958</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01203370094299316</v>
+        <v>0</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>1.235630989074707</v>
+        <v>1.270035982131958</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6950,7 +6950,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CatBoost_r70</t>
+          <t>CatBoost_r69</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6960,37 +6960,37 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8363095238095238</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I45" t="n">
         <v>0.8395485466914037</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.2546613360773669</v>
+        <v>-0.2005747892351334</v>
       </c>
       <c r="M45" t="n">
-        <v>0.456741674573665</v>
+        <v>0.5608434387869555</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9362844717011384</v>
+        <v>0.9302198264698266</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -6998,22 +6998,22 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.004583120346069336</v>
+        <v>0.004997968673706055</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88459849357605</v>
+        <v>1.151721239089966</v>
       </c>
       <c r="S45" t="n">
-        <v>0.004583120346069336</v>
+        <v>0.004997968673706055</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.88459849357605</v>
+        <v>1.151721239089966</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="n">
         <v>19</v>
@@ -7034,16 +7034,16 @@
         <v>1</v>
       </c>
       <c r="AB45" t="n">
-        <v>765728</v>
+        <v>283700</v>
       </c>
       <c r="AC45" t="n">
-        <v>765728</v>
+        <v>283700</v>
       </c>
       <c r="AD45" t="n">
-        <v>765728</v>
+        <v>283700</v>
       </c>
       <c r="AE45" t="n">
-        <v>765728</v>
+        <v>283700</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
@@ -7064,12 +7064,12 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>{'iterations': 404}</t>
+          <t>{'iterations': 401}</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
@@ -7100,7 +7100,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CatBoost_r69</t>
+          <t>CatBoost_r70</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -7110,37 +7110,37 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.8363095238095238</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I46" t="n">
         <v>0.8395485466914037</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.2005747892351334</v>
+        <v>-0.2546613360773669</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5608434387869555</v>
+        <v>0.456741674573665</v>
       </c>
       <c r="N46" t="n">
-        <v>0.9302198264698266</v>
+        <v>0.9362844717011384</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.005006790161132812</v>
+        <v>0.006010532379150391</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.002735376358032227</v>
       </c>
       <c r="R46" t="n">
-        <v>1.064319372177124</v>
+        <v>1.929736375808716</v>
       </c>
       <c r="S46" t="n">
-        <v>0.005006790161132812</v>
+        <v>0.006010532379150391</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.002735376358032227</v>
       </c>
       <c r="U46" t="n">
-        <v>1.064319372177124</v>
+        <v>1.929736375808716</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="n">
         <v>19</v>
@@ -7184,16 +7184,16 @@
         <v>1</v>
       </c>
       <c r="AB46" t="n">
-        <v>283700</v>
+        <v>765728</v>
       </c>
       <c r="AC46" t="n">
-        <v>283700</v>
+        <v>765728</v>
       </c>
       <c r="AD46" t="n">
-        <v>283700</v>
+        <v>765728</v>
       </c>
       <c r="AE46" t="n">
-        <v>283700</v>
+        <v>765728</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -7214,12 +7214,12 @@
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>{'iterations': 401}</t>
+          <t>{'iterations': 404}</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
@@ -7296,18 +7296,18 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.01610612869262695</v>
+        <v>0.01576995849609375</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0.6799697875976562</v>
+        <v>0.6925718784332275</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01610612869262695</v>
+        <v>0.01576995849609375</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>0.6799697875976562</v>
+        <v>0.6925718784332275</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7440,18 +7440,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.01502013206481934</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.3235628604888916</v>
+        <v>0.3197481632232666</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01502013206481934</v>
+        <v>0</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.3235628604888916</v>
+        <v>0.3197481632232666</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7586,22 +7586,22 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.00862574577331543</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01693391799926758</v>
+        <v>0.009310245513916016</v>
       </c>
       <c r="R49" t="n">
-        <v>1.284188270568848</v>
+        <v>1.313768863677979</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.00862574577331543</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01693391799926758</v>
+        <v>0.009310245513916016</v>
       </c>
       <c r="U49" t="n">
-        <v>1.284188270568848</v>
+        <v>1.313768863677979</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7734,18 +7734,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.01283669471740723</v>
+        <v>0.01176762580871582</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>9.300925493240356</v>
+        <v>9.461397886276245</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01283669471740723</v>
+        <v>0.01176762580871582</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>9.300925493240356</v>
+        <v>9.461397886276245</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7880,22 +7880,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.005262851715087891</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1.548758268356323</v>
+        <v>1.584108829498291</v>
       </c>
       <c r="S51" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.005262851715087891</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.548758268356323</v>
+        <v>1.584108829498291</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -8028,18 +8028,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.004070043563842773</v>
+        <v>0.004609107971191406</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>1.224494695663452</v>
+        <v>1.236461400985718</v>
       </c>
       <c r="S52" t="n">
-        <v>0.004070043563842773</v>
+        <v>0.004609107971191406</v>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>1.224494695663452</v>
+        <v>1.236461400985718</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8172,18 +8172,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.01352977752685547</v>
+        <v>0.01223444938659668</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.09246945381164551</v>
+        <v>0.09572601318359375</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01352977752685547</v>
+        <v>0.01223444938659668</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.09246945381164551</v>
+        <v>0.09572601318359375</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8316,18 +8316,18 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.00701904296875</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>1.982251167297363</v>
+        <v>2.0357346534729</v>
       </c>
       <c r="S54" t="n">
-        <v>0.00701904296875</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>1.982251167297363</v>
+        <v>2.0357346534729</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8462,22 +8462,22 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.007759571075439453</v>
+        <v>0.008022069931030273</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01589822769165039</v>
+        <v>0.005452871322631836</v>
       </c>
       <c r="R55" t="n">
-        <v>3.76008129119873</v>
+        <v>3.803114891052246</v>
       </c>
       <c r="S55" t="n">
-        <v>0.007759571075439453</v>
+        <v>0.008022069931030273</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01589822769165039</v>
+        <v>0.005452871322631836</v>
       </c>
       <c r="U55" t="n">
-        <v>3.76008129119873</v>
+        <v>3.803114891052246</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.004671573638916016</v>
+        <v>0.004005193710327148</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8913381099700928</v>
+        <v>0.8850765228271484</v>
       </c>
       <c r="S56" t="n">
-        <v>0.004671573638916016</v>
+        <v>0.004005193710327148</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0.8913381099700928</v>
+        <v>0.8850765228271484</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.006011962890625</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>1.941629886627197</v>
+        <v>1.999089956283569</v>
       </c>
       <c r="S57" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.006011962890625</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>1.941629886627197</v>
+        <v>1.999089956283569</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8912,22 +8912,22 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.01303362846374512</v>
+        <v>0.01187539100646973</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01811599731445312</v>
+        <v>0.006007909774780273</v>
       </c>
       <c r="R58" t="n">
-        <v>1.850720643997192</v>
+        <v>1.506337404251099</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01303362846374512</v>
+        <v>0.01187539100646973</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01811599731445312</v>
+        <v>0.006007909774780273</v>
       </c>
       <c r="U58" t="n">
-        <v>1.850720643997192</v>
+        <v>1.506337404251099</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9062,22 +9062,22 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0531160831451416</v>
+        <v>0.0521550178527832</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.03888535499572754</v>
+        <v>0.04126429557800293</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8689992427825928</v>
+        <v>0.9827673435211182</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0531160831451416</v>
+        <v>0.0521550178527832</v>
       </c>
       <c r="T59" t="n">
-        <v>0.03888535499572754</v>
+        <v>0.04126429557800293</v>
       </c>
       <c r="U59" t="n">
-        <v>0.8689992427825928</v>
+        <v>0.9827673435211182</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9212,22 +9212,22 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0670616626739502</v>
+        <v>0.06402301788330078</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.04118585586547852</v>
+        <v>0.04178953170776367</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5493240356445312</v>
+        <v>0.5405299663543701</v>
       </c>
       <c r="S60" t="n">
-        <v>0.0670616626739502</v>
+        <v>0.06402301788330078</v>
       </c>
       <c r="T60" t="n">
-        <v>0.04118585586547852</v>
+        <v>0.04178953170776367</v>
       </c>
       <c r="U60" t="n">
-        <v>0.5493240356445312</v>
+        <v>0.5405299663543701</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9360,18 +9360,18 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.02915525436401367</v>
+        <v>0.02959561347961426</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0.297356128692627</v>
+        <v>0.3029410839080811</v>
       </c>
       <c r="S61" t="n">
-        <v>0.02915525436401367</v>
+        <v>0.02959561347961426</v>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>0.297356128692627</v>
+        <v>0.3029410839080811</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9504,18 +9504,18 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.007613658905029297</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0.06271004676818848</v>
+        <v>0.06299924850463867</v>
       </c>
       <c r="S62" t="n">
-        <v>0.007613658905029297</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>0.06271004676818848</v>
+        <v>0.06299924850463867</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9648,18 +9648,18 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0149383544921875</v>
+        <v>0.007423162460327148</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>0.08402228355407715</v>
+        <v>0.08265423774719238</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0149383544921875</v>
+        <v>0.007423162460327148</v>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>0.08402228355407715</v>
+        <v>0.08265423774719238</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9792,18 +9792,18 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.06564998626708984</v>
+        <v>0.06559658050537109</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0.8799810409545898</v>
+        <v>0.7253415584564209</v>
       </c>
       <c r="S64" t="n">
-        <v>0.06564998626708984</v>
+        <v>0.06559658050537109</v>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>0.8799810409545898</v>
+        <v>0.7253415584564209</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9936,18 +9936,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.01403236389160156</v>
+        <v>0.01320362091064453</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0.3314454555511475</v>
+        <v>0.3471434116363525</v>
       </c>
       <c r="S65" t="n">
-        <v>0.01403236389160156</v>
+        <v>0.01320362091064453</v>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>0.3314454555511475</v>
+        <v>0.3471434116363525</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -10080,18 +10080,18 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>0.008009910583496094</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.402320384979248</v>
+        <v>0.3950235843658447</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>0.008009910583496094</v>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>0.402320384979248</v>
+        <v>0.3950235843658447</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10224,18 +10224,18 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.007761716842651367</v>
+        <v>0.00802159309387207</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>0.1780331134796143</v>
+        <v>0.2156994342803955</v>
       </c>
       <c r="S67" t="n">
-        <v>0.007761716842651367</v>
+        <v>0.00802159309387207</v>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>0.1780331134796143</v>
+        <v>0.2156994342803955</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10370,22 +10370,22 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.004684925079345703</v>
+        <v>0.005759477615356445</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.8417232036590576</v>
+        <v>0.9002547264099121</v>
       </c>
       <c r="S68" t="n">
-        <v>0.004684925079345703</v>
+        <v>0.005759477615356445</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0.8417232036590576</v>
+        <v>0.9002547264099121</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10518,18 +10518,18 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.06559586524963379</v>
+        <v>0.06580805778503418</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>0.7936580181121826</v>
+        <v>0.7490253448486328</v>
       </c>
       <c r="S69" t="n">
-        <v>0.06559586524963379</v>
+        <v>0.06580805778503418</v>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>0.7936580181121826</v>
+        <v>0.7490253448486328</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10662,18 +10662,18 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.01577448844909668</v>
+        <v>0.01578450202941895</v>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>0.3528563976287842</v>
+        <v>0.3661537170410156</v>
       </c>
       <c r="S70" t="n">
-        <v>0.01577448844909668</v>
+        <v>0.01578450202941895</v>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>0.3528563976287842</v>
+        <v>0.3661537170410156</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10808,22 +10808,22 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.07775115966796875</v>
+        <v>0.07795548439025879</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.04690408706665039</v>
+        <v>0.03821134567260742</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5180583000183105</v>
+        <v>0.5262982845306396</v>
       </c>
       <c r="S71" t="n">
-        <v>0.07775115966796875</v>
+        <v>0.07795548439025879</v>
       </c>
       <c r="T71" t="n">
-        <v>0.04690408706665039</v>
+        <v>0.03821134567260742</v>
       </c>
       <c r="U71" t="n">
-        <v>0.5180583000183105</v>
+        <v>0.5262982845306396</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10956,18 +10956,18 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.01411771774291992</v>
+        <v>0.01326513290405273</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>1.15525484085083</v>
+        <v>1.268617391586304</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01411771774291992</v>
+        <v>0.01326513290405273</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>1.15525484085083</v>
+        <v>1.268617391586304</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11102,22 +11102,22 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.06404685974121094</v>
+        <v>0.06485462188720703</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0398859977722168</v>
+        <v>0.0425117015838623</v>
       </c>
       <c r="R73" t="n">
-        <v>0.7928199768066406</v>
+        <v>0.8158929347991943</v>
       </c>
       <c r="S73" t="n">
-        <v>0.06404685974121094</v>
+        <v>0.06485462188720703</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0398859977722168</v>
+        <v>0.0425117015838623</v>
       </c>
       <c r="U73" t="n">
-        <v>0.7928199768066406</v>
+        <v>0.8158929347991943</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11252,22 +11252,22 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.06736850738525391</v>
+        <v>0.0689239501953125</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.03836512565612793</v>
+        <v>0.04087042808532715</v>
       </c>
       <c r="R74" t="n">
-        <v>0.5980279445648193</v>
+        <v>0.6295845508575439</v>
       </c>
       <c r="S74" t="n">
-        <v>0.06736850738525391</v>
+        <v>0.0689239501953125</v>
       </c>
       <c r="T74" t="n">
-        <v>0.03836512565612793</v>
+        <v>0.04087042808532715</v>
       </c>
       <c r="U74" t="n">
-        <v>0.5980279445648193</v>
+        <v>0.6295845508575439</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -11400,18 +11400,18 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.005759477615356445</v>
+        <v>0.008015871047973633</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.06299614906311035</v>
+        <v>0.06009864807128906</v>
       </c>
       <c r="S75" t="n">
-        <v>0.005759477615356445</v>
+        <v>0.008015871047973633</v>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>0.06299614906311035</v>
+        <v>0.06009864807128906</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11498,7 +11498,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CatBoost_r50</t>
+          <t>CatBoost_r49</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -11508,37 +11508,37 @@
         <v>0.9464285714285714</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8363095238095238</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I76" t="n">
         <v>0.7919294990723562</v>
       </c>
       <c r="J76" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.2687526156297249</v>
+        <v>-0.226786585147331</v>
       </c>
       <c r="M76" t="n">
-        <v>0.4305317325353217</v>
+        <v>0.5096894244661995</v>
       </c>
       <c r="N76" t="n">
-        <v>0.9261220580186097</v>
+        <v>0.934718775847808</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -11546,22 +11546,22 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.00501704216003418</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0.8608782291412354</v>
+        <v>0.8673462867736816</v>
       </c>
       <c r="S76" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.00501704216003418</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0.8608782291412354</v>
+        <v>0.8673462867736816</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Y76" t="n">
         <v>19</v>
@@ -11582,16 +11582,16 @@
         <v>1</v>
       </c>
       <c r="AB76" t="n">
-        <v>174119</v>
+        <v>139012</v>
       </c>
       <c r="AC76" t="n">
-        <v>174119</v>
+        <v>139012</v>
       </c>
       <c r="AD76" t="n">
-        <v>174119</v>
+        <v>139012</v>
       </c>
       <c r="AE76" t="n">
-        <v>174119</v>
+        <v>139012</v>
       </c>
       <c r="AF76" t="n">
         <v>0</v>
@@ -11612,12 +11612,12 @@
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL76" t="inlineStr">
         <is>
-          <t>{'iterations': 186}</t>
+          <t>{'iterations': 296}</t>
         </is>
       </c>
       <c r="AM76" t="inlineStr">
@@ -11648,7 +11648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CatBoost_r60</t>
+          <t>CatBoost_r50</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -11658,37 +11658,37 @@
         <v>0.9464285714285714</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.8363095238095238</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I77" t="n">
         <v>0.7919294990723562</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.2410616011380997</v>
+        <v>-0.2687526156297249</v>
       </c>
       <c r="M77" t="n">
-        <v>0.4823899040112427</v>
+        <v>0.4305317325353217</v>
       </c>
       <c r="N77" t="n">
-        <v>0.9085006055772185</v>
+        <v>0.9261220580186097</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -11696,22 +11696,22 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.005758762359619141</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01483416557312012</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1.343205690383911</v>
+        <v>0.8868153095245361</v>
       </c>
       <c r="S77" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.005758762359619141</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01483416557312012</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1.343205690383911</v>
+        <v>0.8868153095245361</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="X77" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="Y77" t="n">
         <v>19</v>
@@ -11732,16 +11732,16 @@
         <v>1</v>
       </c>
       <c r="AB77" t="n">
-        <v>354668</v>
+        <v>174119</v>
       </c>
       <c r="AC77" t="n">
-        <v>354668</v>
+        <v>174119</v>
       </c>
       <c r="AD77" t="n">
-        <v>354668</v>
+        <v>174119</v>
       </c>
       <c r="AE77" t="n">
-        <v>354668</v>
+        <v>174119</v>
       </c>
       <c r="AF77" t="n">
         <v>0</v>
@@ -11762,12 +11762,12 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.05291587380674719, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3217885487525205, 'max_ctr_complexity': 5, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>{'iterations': 515}</t>
+          <t>{'iterations': 186}</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
@@ -11798,7 +11798,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CatBoost_r49</t>
+          <t>CatBoost_r60</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11832,13 +11832,13 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.226786585147331</v>
+        <v>-0.2410616011380997</v>
       </c>
       <c r="M78" t="n">
-        <v>0.5096894244661995</v>
+        <v>0.4823899040112427</v>
       </c>
       <c r="N78" t="n">
-        <v>0.934718775847808</v>
+        <v>0.9085006055772185</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -11846,22 +11846,22 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.00575566291809082</v>
+        <v>0.006011724472045898</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0.826946496963501</v>
+        <v>1.380906343460083</v>
       </c>
       <c r="S78" t="n">
-        <v>0.00575566291809082</v>
+        <v>0.006011724472045898</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>0.826946496963501</v>
+        <v>1.380906343460083</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11870,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="X78" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="n">
         <v>19</v>
@@ -11882,16 +11882,16 @@
         <v>1</v>
       </c>
       <c r="AB78" t="n">
-        <v>139012</v>
+        <v>354668</v>
       </c>
       <c r="AC78" t="n">
-        <v>139012</v>
+        <v>354668</v>
       </c>
       <c r="AD78" t="n">
-        <v>139012</v>
+        <v>354668</v>
       </c>
       <c r="AE78" t="n">
-        <v>139012</v>
+        <v>354668</v>
       </c>
       <c r="AF78" t="n">
         <v>0</v>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.05291587380674719, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3217885487525205, 'max_ctr_complexity': 5, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>{'iterations': 296}</t>
+          <t>{'iterations': 515}</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
@@ -11996,22 +11996,22 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.006525039672851562</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="R79" t="n">
-        <v>1.338287115097046</v>
+        <v>1.354451417922974</v>
       </c>
       <c r="S79" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.006525039672851562</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="U79" t="n">
-        <v>1.338287115097046</v>
+        <v>1.354451417922974</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12098,7 +12098,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CatBoost_r137</t>
+          <t>CatBoost_r180</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -12108,37 +12108,37 @@
         <v>0.9464285714285714</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.7648809523809523</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I80" t="n">
         <v>0.7919294990723562</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.2390529109929356</v>
+        <v>-0.3076282528638241</v>
       </c>
       <c r="M80" t="n">
-        <v>0.4862078213499855</v>
+        <v>0.3601086715463505</v>
       </c>
       <c r="N80" t="n">
-        <v>0.915009318638351</v>
+        <v>0.915289025310577</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -12146,22 +12146,22 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.00697016716003418</v>
+        <v>0.007523536682128906</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>0.01495480537414551</v>
       </c>
       <c r="R80" t="n">
-        <v>2.332834959030151</v>
+        <v>3.641013860702515</v>
       </c>
       <c r="S80" t="n">
-        <v>0.00697016716003418</v>
+        <v>0.007523536682128906</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>0.01495480537414551</v>
       </c>
       <c r="U80" t="n">
-        <v>2.332834959030151</v>
+        <v>3.641013860702515</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12170,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="Y80" t="n">
         <v>19</v>
@@ -12182,16 +12182,16 @@
         <v>1</v>
       </c>
       <c r="AB80" t="n">
-        <v>389566</v>
+        <v>1952866</v>
       </c>
       <c r="AC80" t="n">
-        <v>389566</v>
+        <v>1952866</v>
       </c>
       <c r="AD80" t="n">
-        <v>389566</v>
+        <v>1952866</v>
       </c>
       <c r="AE80" t="n">
-        <v>389566</v>
+        <v>1952866</v>
       </c>
       <c r="AF80" t="n">
         <v>0</v>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL80" t="inlineStr">
         <is>
-          <t>{'iterations': 985}</t>
+          <t>{'iterations': 515}</t>
         </is>
       </c>
       <c r="AM80" t="inlineStr">
@@ -12248,7 +12248,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CatBoost_r180</t>
+          <t>CatBoost_r137</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -12258,37 +12258,37 @@
         <v>0.9464285714285714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7648809523809523</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I81" t="n">
         <v>0.7919294990723562</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.3076282528638241</v>
+        <v>-0.2390529109929356</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3601086715463505</v>
+        <v>0.4862078213499855</v>
       </c>
       <c r="N81" t="n">
-        <v>0.915289025310577</v>
+        <v>0.915009318638351</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -12296,22 +12296,22 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.007762670516967773</v>
+        <v>0.00812983512878418</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002005100250244141</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>3.621537208557129</v>
+        <v>2.41787052154541</v>
       </c>
       <c r="S81" t="n">
-        <v>0.007762670516967773</v>
+        <v>0.00812983512878418</v>
       </c>
       <c r="T81" t="n">
-        <v>0.002005100250244141</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>3.621537208557129</v>
+        <v>2.41787052154541</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12320,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="X81" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="Y81" t="n">
         <v>19</v>
@@ -12332,16 +12332,16 @@
         <v>1</v>
       </c>
       <c r="AB81" t="n">
-        <v>1952866</v>
+        <v>389566</v>
       </c>
       <c r="AC81" t="n">
-        <v>1952866</v>
+        <v>389566</v>
       </c>
       <c r="AD81" t="n">
-        <v>1952866</v>
+        <v>389566</v>
       </c>
       <c r="AE81" t="n">
-        <v>1952866</v>
+        <v>389566</v>
       </c>
       <c r="AF81" t="n">
         <v>0</v>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL81" t="inlineStr">
         <is>
-          <t>{'iterations': 515}</t>
+          <t>{'iterations': 985}</t>
         </is>
       </c>
       <c r="AM81" t="inlineStr">
@@ -12444,18 +12444,18 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.01302504539489746</v>
+        <v>0.01340341567993164</v>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>0.473660945892334</v>
+        <v>0.48934006690979</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01302504539489746</v>
+        <v>0.01340341567993164</v>
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>0.473660945892334</v>
+        <v>0.48934006690979</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12590,22 +12590,22 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.06304383277893066</v>
+        <v>0.06732177734375</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.04086923599243164</v>
+        <v>0.03940415382385254</v>
       </c>
       <c r="R83" t="n">
-        <v>0.849550724029541</v>
+        <v>0.7774143218994141</v>
       </c>
       <c r="S83" t="n">
-        <v>0.06304383277893066</v>
+        <v>0.06732177734375</v>
       </c>
       <c r="T83" t="n">
-        <v>0.04086923599243164</v>
+        <v>0.03940415382385254</v>
       </c>
       <c r="U83" t="n">
-        <v>0.849550724029541</v>
+        <v>0.7774143218994141</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12738,18 +12738,18 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.1878688335418701</v>
+        <v>0.1963884830474854</v>
       </c>
       <c r="S84" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>0.1878688335418701</v>
+        <v>0.1963884830474854</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12884,22 +12884,22 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>0.0137183666229248</v>
       </c>
       <c r="R85" t="n">
-        <v>0.8248960971832275</v>
+        <v>0.8354573249816895</v>
       </c>
       <c r="S85" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.0137183666229248</v>
       </c>
       <c r="U85" t="n">
-        <v>0.8248960971832275</v>
+        <v>0.8354573249816895</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13034,22 +13034,22 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.01889276504516602</v>
+        <v>0.01604270935058594</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>0.005243778228759766</v>
       </c>
       <c r="R86" t="n">
-        <v>1.174240827560425</v>
+        <v>1.308377027511597</v>
       </c>
       <c r="S86" t="n">
-        <v>0.01889276504516602</v>
+        <v>0.01604270935058594</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>0.005243778228759766</v>
       </c>
       <c r="U86" t="n">
-        <v>1.174240827560425</v>
+        <v>1.308377027511597</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13184,22 +13184,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0100247859954834</v>
+        <v>0.01207089424133301</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.007743597030639648</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0.5462422370910645</v>
+        <v>0.6105482578277588</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0100247859954834</v>
+        <v>0.01207089424133301</v>
       </c>
       <c r="T87" t="n">
-        <v>0.007743597030639648</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0.5462422370910645</v>
+        <v>0.6105482578277588</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13334,22 +13334,22 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.04156398773193359</v>
+        <v>0.0433201789855957</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01180624961853027</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>2.88438868522644</v>
+        <v>3.302834033966064</v>
       </c>
       <c r="S88" t="n">
-        <v>0.04156398773193359</v>
+        <v>0.0433201789855957</v>
       </c>
       <c r="T88" t="n">
-        <v>0.01180624961853027</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>2.88438868522644</v>
+        <v>3.302834033966064</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13484,22 +13484,22 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.004347085952758789</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0.391437292098999</v>
+        <v>0.394038200378418</v>
       </c>
       <c r="S89" t="n">
-        <v>0.004347085952758789</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0.391437292098999</v>
+        <v>0.394038200378418</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13632,18 +13632,18 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>0.7820024490356445</v>
+        <v>0.7903094291687012</v>
       </c>
       <c r="S90" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>0.7820024490356445</v>
+        <v>0.7903094291687012</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13778,22 +13778,22 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.01353049278259277</v>
+        <v>0.01377987861633301</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.009154081344604492</v>
+        <v>0.006069660186767578</v>
       </c>
       <c r="R91" t="n">
-        <v>1.727625131607056</v>
+        <v>1.768755435943604</v>
       </c>
       <c r="S91" t="n">
-        <v>0.01353049278259277</v>
+        <v>0.01377987861633301</v>
       </c>
       <c r="T91" t="n">
-        <v>0.009154081344604492</v>
+        <v>0.006069660186767578</v>
       </c>
       <c r="U91" t="n">
-        <v>1.727625131607056</v>
+        <v>1.768755435943604</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13926,18 +13926,18 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0035400390625</v>
+        <v>0.003752470016479492</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>1.051709890365601</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0035400390625</v>
+        <v>0.003752470016479492</v>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>1.051709890365601</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14070,18 +14070,18 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.005013227462768555</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="n">
-        <v>2.11601185798645</v>
+        <v>2.131428718566895</v>
       </c>
       <c r="S93" t="n">
-        <v>0.005013227462768555</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.11601185798645</v>
+        <v>2.131428718566895</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14214,18 +14214,18 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.05291199684143066</v>
+        <v>0.05337357521057129</v>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>0.7806837558746338</v>
+        <v>1.102717399597168</v>
       </c>
       <c r="S94" t="n">
-        <v>0.05291199684143066</v>
+        <v>0.05337357521057129</v>
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>0.7806837558746338</v>
+        <v>1.102717399597168</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14358,18 +14358,18 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.06825804710388184</v>
+        <v>0.06601667404174805</v>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0.5215027332305908</v>
+        <v>0.5226192474365234</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06825804710388184</v>
+        <v>0.06601667404174805</v>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>0.5215027332305908</v>
+        <v>0.5226192474365234</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14504,22 +14504,22 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.003751754760742188</v>
+        <v>0.003507852554321289</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0.3182005882263184</v>
+        <v>0.3486084938049316</v>
       </c>
       <c r="S96" t="n">
-        <v>0.003751754760742188</v>
+        <v>0.003507852554321289</v>
       </c>
       <c r="T96" t="n">
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>0.3182005882263184</v>
+        <v>0.3486084938049316</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14654,22 +14654,22 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.01002955436706543</v>
+        <v>0.01001691818237305</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.007014036178588867</v>
+        <v>0.01585102081298828</v>
       </c>
       <c r="R97" t="n">
-        <v>0.3445596694946289</v>
+        <v>0.3326623439788818</v>
       </c>
       <c r="S97" t="n">
-        <v>0.01002955436706543</v>
+        <v>0.01001691818237305</v>
       </c>
       <c r="T97" t="n">
-        <v>0.007014036178588867</v>
+        <v>0.01585102081298828</v>
       </c>
       <c r="U97" t="n">
-        <v>0.3445596694946289</v>
+        <v>0.3326623439788818</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14802,18 +14802,18 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.00575709342956543</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>0.151996374130249</v>
+        <v>0.1569304466247559</v>
       </c>
       <c r="S98" t="n">
-        <v>0.00575709342956543</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>0.151996374130249</v>
+        <v>0.1569304466247559</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14946,18 +14946,18 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.1777536869049072</v>
+        <v>0.1788671016693115</v>
       </c>
       <c r="S99" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>0.1777536869049072</v>
+        <v>0.1788671016693115</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15092,22 +15092,22 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.007755517959594727</v>
+        <v>0.007763147354125977</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>0.4257447719573975</v>
+        <v>0.458106517791748</v>
       </c>
       <c r="S100" t="n">
-        <v>0.007755517959594727</v>
+        <v>0.007763147354125977</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>0.4257447719573975</v>
+        <v>0.458106517791748</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15242,22 +15242,22 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.01202654838562012</v>
+        <v>0.01178956031799316</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6505126953125</v>
+        <v>0.7226109504699707</v>
       </c>
       <c r="S101" t="n">
-        <v>0.01202654838562012</v>
+        <v>0.01178956031799316</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="U101" t="n">
-        <v>0.6505126953125</v>
+        <v>0.7226109504699707</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15392,22 +15392,22 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.06591796875</v>
+        <v>0.0740969181060791</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.03908252716064453</v>
+        <v>0.04088807106018066</v>
       </c>
       <c r="R102" t="n">
-        <v>0.7637979984283447</v>
+        <v>0.7890901565551758</v>
       </c>
       <c r="S102" t="n">
-        <v>0.06591796875</v>
+        <v>0.0740969181060791</v>
       </c>
       <c r="T102" t="n">
-        <v>0.03908252716064453</v>
+        <v>0.04088807106018066</v>
       </c>
       <c r="U102" t="n">
-        <v>0.7637979984283447</v>
+        <v>0.7890901565551758</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15540,18 +15540,18 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="n">
-        <v>0.3057427406311035</v>
+        <v>0.3319714069366455</v>
       </c>
       <c r="S103" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>0.3057427406311035</v>
+        <v>0.3319714069366455</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15686,22 +15686,22 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.1032023429870605</v>
+        <v>0.0979006290435791</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.0117645263671875</v>
+        <v>0.01003122329711914</v>
       </c>
       <c r="R104" t="n">
-        <v>2.912393569946289</v>
+        <v>3.21305775642395</v>
       </c>
       <c r="S104" t="n">
-        <v>0.1032023429870605</v>
+        <v>0.0979006290435791</v>
       </c>
       <c r="T104" t="n">
-        <v>0.0117645263671875</v>
+        <v>0.01003122329711914</v>
       </c>
       <c r="U104" t="n">
-        <v>2.912393569946289</v>
+        <v>3.21305775642395</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15834,18 +15834,18 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.006013631820678711</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>0.2117073535919189</v>
+        <v>0.2236011028289795</v>
       </c>
       <c r="S105" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.006013631820678711</v>
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>0.2117073535919189</v>
+        <v>0.2236011028289795</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15978,18 +15978,18 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.06788945198059082</v>
+        <v>0.06620597839355469</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>0.5243678092956543</v>
+        <v>0.9302158355712891</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06788945198059082</v>
+        <v>0.06620597839355469</v>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>0.5243678092956543</v>
+        <v>0.9302158355712891</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16124,22 +16124,22 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.01202630996704102</v>
+        <v>0.01341390609741211</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>0.6506624221801758</v>
+        <v>0.6952719688415527</v>
       </c>
       <c r="S107" t="n">
-        <v>0.01202630996704102</v>
+        <v>0.01341390609741211</v>
       </c>
       <c r="T107" t="n">
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0.6506624221801758</v>
+        <v>0.6952719688415527</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16274,22 +16274,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.01953339576721191</v>
+        <v>0.01953005790710449</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.009021520614624023</v>
+        <v>0.008796215057373047</v>
       </c>
       <c r="R108" t="n">
-        <v>0.377471923828125</v>
+        <v>0.38124680519104</v>
       </c>
       <c r="S108" t="n">
-        <v>0.01953339576721191</v>
+        <v>0.01953005790710449</v>
       </c>
       <c r="T108" t="n">
-        <v>0.009021520614624023</v>
+        <v>0.008796215057373047</v>
       </c>
       <c r="U108" t="n">
-        <v>0.377471923828125</v>
+        <v>0.38124680519104</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16424,22 +16424,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.06772828102111816</v>
+        <v>0.06697916984558105</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.03809547424316406</v>
+        <v>0.04053425788879395</v>
       </c>
       <c r="R109" t="n">
-        <v>0.5288140773773193</v>
+        <v>0.5357065200805664</v>
       </c>
       <c r="S109" t="n">
-        <v>0.06772828102111816</v>
+        <v>0.06697916984558105</v>
       </c>
       <c r="T109" t="n">
-        <v>0.03809547424316406</v>
+        <v>0.04053425788879395</v>
       </c>
       <c r="U109" t="n">
-        <v>0.5288140773773193</v>
+        <v>0.5357065200805664</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16572,18 +16572,18 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.01152420043945312</v>
+        <v>0.01378417015075684</v>
       </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>0.6837396621704102</v>
+        <v>0.7082421779632568</v>
       </c>
       <c r="S110" t="n">
-        <v>0.01152420043945312</v>
+        <v>0.01378417015075684</v>
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>0.6837396621704102</v>
+        <v>0.7082421779632568</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16718,22 +16718,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.01148390769958496</v>
+        <v>0.01144313812255859</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006007194519042969</v>
       </c>
       <c r="R111" t="n">
-        <v>1.558764934539795</v>
+        <v>1.536500930786133</v>
       </c>
       <c r="S111" t="n">
-        <v>0.01148390769958496</v>
+        <v>0.01144313812255859</v>
       </c>
       <c r="T111" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006007194519042969</v>
       </c>
       <c r="U111" t="n">
-        <v>1.558764934539795</v>
+        <v>1.536500930786133</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16868,22 +16868,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.01102852821350098</v>
+        <v>0.01377654075622559</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>0.001747369766235352</v>
       </c>
       <c r="R112" t="n">
-        <v>0.6194205284118652</v>
+        <v>0.6710340976715088</v>
       </c>
       <c r="S112" t="n">
-        <v>0.01102852821350098</v>
+        <v>0.01377654075622559</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>0.001747369766235352</v>
       </c>
       <c r="U112" t="n">
-        <v>0.6194205284118652</v>
+        <v>0.6710340976715088</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -17016,18 +17016,18 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.06372570991516113</v>
+        <v>0.06693077087402344</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>0.5472579002380371</v>
+        <v>0.5768518447875977</v>
       </c>
       <c r="S113" t="n">
-        <v>0.06372570991516113</v>
+        <v>0.06693077087402344</v>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>0.5472579002380371</v>
+        <v>0.5768518447875977</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17162,22 +17162,22 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.006433010101318359</v>
+        <v>0.01125836372375488</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>0.3814883232116699</v>
+        <v>0.3739979267120361</v>
       </c>
       <c r="S114" t="n">
-        <v>0.006433010101318359</v>
+        <v>0.01125836372375488</v>
       </c>
       <c r="T114" t="n">
         <v>0</v>
       </c>
       <c r="U114" t="n">
-        <v>0.3814883232116699</v>
+        <v>0.3739979267120361</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17264,7 +17264,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r36_FULL</t>
+          <t>NeuralNetFastAI_r127_FULL</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -17277,13 +17277,13 @@
         <v>0.8064516129032258</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6726190476190476</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="H115" t="n">
         <v>0.8064516129032258</v>
@@ -17292,16 +17292,16 @@
         <v>0.7185897435897435</v>
       </c>
       <c r="J115" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.3233545706974282</v>
+        <v>-0.3832575708760391</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3323891629006673</v>
+        <v>0.2307073717945731</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
@@ -17310,18 +17310,18 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>0.008781671524047852</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>0.4745423793792725</v>
+        <v>0.766740083694458</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>0.008781671524047852</v>
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>0.4745423793792725</v>
+        <v>0.766740083694458</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17330,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="X115" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Y115" t="n">
         <v>19</v>
@@ -17342,16 +17342,16 @@
         <v>1</v>
       </c>
       <c r="AB115" t="n">
-        <v>40705</v>
+        <v>143311</v>
       </c>
       <c r="AC115" t="n">
-        <v>40705</v>
+        <v>143311</v>
       </c>
       <c r="AD115" t="n">
-        <v>40705</v>
+        <v>143311</v>
       </c>
       <c r="AE115" t="n">
-        <v>40705</v>
+        <v>143311</v>
       </c>
       <c r="AF115" t="n">
         <v>0</v>
@@ -17361,23 +17361,23 @@
       </c>
       <c r="AH115" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI115" t="inlineStr"/>
       <c r="AJ115" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK115" t="inlineStr">
         <is>
-          <t>{'num_epochs': 23, 'epochs_wo_improve': None, 'activation': 'elu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3457125770744979, 'optimizer': 'adam', 'learning_rate': 0.006435774191713849, 'weight_decay': 2.4012185204155345e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 3, 'hidden_size': 37, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [200, 100], 'emb_drop': 0.31956392388385874, 'ps': 0.0934076022219228, 'bs': 1024, 'lr': 0.08552736732040143, 'epochs': 25, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 13}</t>
         </is>
       </c>
       <c r="AL115" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 25, 'best_epoch': 13}</t>
         </is>
       </c>
       <c r="AM115" t="inlineStr">
@@ -17408,7 +17408,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r127_FULL</t>
+          <t>NeuralNetTorch_r36_FULL</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -17421,13 +17421,13 @@
         <v>0.8064516129032258</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6726190476190476</v>
       </c>
       <c r="F116" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0.8064516129032258</v>
@@ -17436,16 +17436,16 @@
         <v>0.7185897435897435</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.3832575708760391</v>
+        <v>-0.3233545706974282</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2307073717945731</v>
+        <v>0.3323891629006673</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
@@ -17454,18 +17454,18 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.01442646980285645</v>
+        <v>0.009016513824462891</v>
       </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="n">
-        <v>0.7589223384857178</v>
+        <v>0.4838082790374756</v>
       </c>
       <c r="S116" t="n">
-        <v>0.01442646980285645</v>
+        <v>0.009016513824462891</v>
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>0.7589223384857178</v>
+        <v>0.4838082790374756</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="X116" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Y116" t="n">
         <v>19</v>
@@ -17486,16 +17486,16 @@
         <v>1</v>
       </c>
       <c r="AB116" t="n">
-        <v>143311</v>
+        <v>40705</v>
       </c>
       <c r="AC116" t="n">
-        <v>143311</v>
+        <v>40705</v>
       </c>
       <c r="AD116" t="n">
-        <v>143311</v>
+        <v>40705</v>
       </c>
       <c r="AE116" t="n">
-        <v>143311</v>
+        <v>40705</v>
       </c>
       <c r="AF116" t="n">
         <v>0</v>
@@ -17505,23 +17505,23 @@
       </c>
       <c r="AH116" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI116" t="inlineStr"/>
       <c r="AJ116" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100], 'emb_drop': 0.31956392388385874, 'ps': 0.0934076022219228, 'bs': 1024, 'lr': 0.08552736732040143, 'epochs': 25, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 13}</t>
+          <t>{'num_epochs': 23, 'epochs_wo_improve': None, 'activation': 'elu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3457125770744979, 'optimizer': 'adam', 'learning_rate': 0.006435774191713849, 'weight_decay': 2.4012185204155345e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 3, 'hidden_size': 37, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL116" t="inlineStr">
         <is>
-          <t>{'epochs': 25, 'best_epoch': 13}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM116" t="inlineStr">
@@ -17598,18 +17598,18 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.01291799545288086</v>
+        <v>0.01304101943969727</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>0.5013687610626221</v>
+        <v>0.5078365802764893</v>
       </c>
       <c r="S117" t="n">
-        <v>0.01291799545288086</v>
+        <v>0.01304101943969727</v>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>0.5013687610626221</v>
+        <v>0.5078365802764893</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17744,22 +17744,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.01346588134765625</v>
+        <v>0.01176071166992188</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.004005670547485352</v>
+        <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0.3587357997894287</v>
+        <v>0.3780207633972168</v>
       </c>
       <c r="S118" t="n">
-        <v>0.01346588134765625</v>
+        <v>0.01176071166992188</v>
       </c>
       <c r="T118" t="n">
-        <v>0.004005670547485352</v>
+        <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>0.3587357997894287</v>
+        <v>0.3780207633972168</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17892,18 +17892,18 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.01378130912780762</v>
+        <v>0.01177048683166504</v>
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="n">
-        <v>1.154730319976807</v>
+        <v>1.120001554489136</v>
       </c>
       <c r="S119" t="n">
-        <v>0.01378130912780762</v>
+        <v>0.01177048683166504</v>
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="n">
-        <v>1.154730319976807</v>
+        <v>1.120001554489136</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18038,22 +18038,22 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.01298046112060547</v>
+        <v>0.01378488540649414</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>0.3756375312805176</v>
+        <v>0.4004833698272705</v>
       </c>
       <c r="S120" t="n">
-        <v>0.01298046112060547</v>
+        <v>0.01378488540649414</v>
       </c>
       <c r="T120" t="n">
         <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>0.3756375312805176</v>
+        <v>0.4004833698272705</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18188,22 +18188,22 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.01591157913208008</v>
+        <v>0.01572370529174805</v>
       </c>
       <c r="R121" t="n">
-        <v>0.3144052028656006</v>
+        <v>0.3361997604370117</v>
       </c>
       <c r="S121" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T121" t="n">
-        <v>0.01591157913208008</v>
+        <v>0.01572370529174805</v>
       </c>
       <c r="U121" t="n">
-        <v>0.3144052028656006</v>
+        <v>0.3361997604370117</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18336,18 +18336,18 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.008744716644287109</v>
+        <v>0.01576018333435059</v>
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>2.133422136306763</v>
+        <v>2.155594110488892</v>
       </c>
       <c r="S122" t="n">
-        <v>0.008744716644287109</v>
+        <v>0.01576018333435059</v>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>2.133422136306763</v>
+        <v>2.155594110488892</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18482,22 +18482,22 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.01190686225891113</v>
+        <v>0.01397562026977539</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.01567959785461426</v>
+        <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>2.383801937103271</v>
+        <v>2.440535545349121</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01190686225891113</v>
+        <v>0.01397562026977539</v>
       </c>
       <c r="T123" t="n">
-        <v>0.01567959785461426</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>2.383801937103271</v>
+        <v>2.440535545349121</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18630,18 +18630,18 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.05723118782043457</v>
+        <v>0.06660246849060059</v>
       </c>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="n">
-        <v>0.5512950420379639</v>
+        <v>0.5576121807098389</v>
       </c>
       <c r="S124" t="n">
-        <v>0.05723118782043457</v>
+        <v>0.06660246849060059</v>
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>0.5512950420379639</v>
+        <v>0.5576121807098389</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18776,22 +18776,22 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.06946873664855957</v>
+        <v>0.06833100318908691</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03840017318725586</v>
+        <v>0.04328155517578125</v>
       </c>
       <c r="R125" t="n">
-        <v>0.5542302131652832</v>
+        <v>0.6080873012542725</v>
       </c>
       <c r="S125" t="n">
-        <v>0.06946873664855957</v>
+        <v>0.06833100318908691</v>
       </c>
       <c r="T125" t="n">
-        <v>0.03840017318725586</v>
+        <v>0.04328155517578125</v>
       </c>
       <c r="U125" t="n">
-        <v>0.5542302131652832</v>
+        <v>0.6080873012542725</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18924,18 +18924,18 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.06935691833496094</v>
+        <v>0.07794928550720215</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.55613112449646</v>
+        <v>0.6169009208679199</v>
       </c>
       <c r="S126" t="n">
-        <v>0.06935691833496094</v>
+        <v>0.07794928550720215</v>
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>0.55613112449646</v>
+        <v>0.6169009208679199</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -19070,22 +19070,22 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.01578307151794434</v>
+        <v>0.01498842239379883</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>0.01593685150146484</v>
       </c>
       <c r="R127" t="n">
-        <v>2.549927711486816</v>
+        <v>2.449106216430664</v>
       </c>
       <c r="S127" t="n">
-        <v>0.01578307151794434</v>
+        <v>0.01498842239379883</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>0.01593685150146484</v>
       </c>
       <c r="U127" t="n">
-        <v>2.549927711486816</v>
+        <v>2.449106216430664</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19220,22 +19220,22 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.01577210426330566</v>
+        <v>0.01377487182617188</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>1.790640592575073</v>
+        <v>1.852885484695435</v>
       </c>
       <c r="S128" t="n">
-        <v>0.01577210426330566</v>
+        <v>0.01377487182617188</v>
       </c>
       <c r="T128" t="n">
         <v>0</v>
       </c>
       <c r="U128" t="n">
-        <v>1.790640592575073</v>
+        <v>1.852885484695435</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19370,22 +19370,22 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.01708793640136719</v>
+        <v>0.007449626922607422</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.01597881317138672</v>
+        <v>0.008484601974487305</v>
       </c>
       <c r="R129" t="n">
-        <v>1.642224788665771</v>
+        <v>1.701685905456543</v>
       </c>
       <c r="S129" t="n">
-        <v>0.01708793640136719</v>
+        <v>0.007449626922607422</v>
       </c>
       <c r="T129" t="n">
-        <v>0.01597881317138672</v>
+        <v>0.008484601974487305</v>
       </c>
       <c r="U129" t="n">
-        <v>1.642224788665771</v>
+        <v>1.701685905456543</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19518,18 +19518,18 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.06962251663208008</v>
+        <v>0.07036542892456055</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="n">
-        <v>0.8045475482940674</v>
+        <v>0.7926945686340332</v>
       </c>
       <c r="S130" t="n">
-        <v>0.06962251663208008</v>
+        <v>0.07036542892456055</v>
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>0.8045475482940674</v>
+        <v>0.7926945686340332</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19662,18 +19662,18 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>0.002007007598876953</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
-        <v>0.1247396469116211</v>
+        <v>0.1166720390319824</v>
       </c>
       <c r="S131" t="n">
-        <v>0</v>
+        <v>0.002007007598876953</v>
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>0.1247396469116211</v>
+        <v>0.1166720390319824</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19808,22 +19808,22 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.0120241641998291</v>
+        <v>0.01226568222045898</v>
       </c>
       <c r="Q132" t="n">
         <v>0.004006385803222656</v>
       </c>
       <c r="R132" t="n">
-        <v>0.2964644432067871</v>
+        <v>0.2928926944732666</v>
       </c>
       <c r="S132" t="n">
-        <v>0.0120241641998291</v>
+        <v>0.01226568222045898</v>
       </c>
       <c r="T132" t="n">
         <v>0.004006385803222656</v>
       </c>
       <c r="U132" t="n">
-        <v>0.2964644432067871</v>
+        <v>0.2928926944732666</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19956,18 +19956,18 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.01201820373535156</v>
+        <v>0.01177239418029785</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
-        <v>0.2636682987213135</v>
+        <v>0.3049299716949463</v>
       </c>
       <c r="S133" t="n">
-        <v>0.01201820373535156</v>
+        <v>0.01177239418029785</v>
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>0.2636682987213135</v>
+        <v>0.3049299716949463</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20054,7 +20054,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>XGBoost_r22</t>
+          <t>XGBoost_r95</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -20088,13 +20088,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.3179463707226055</v>
+        <v>-0.3312444188473281</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3418725999480562</v>
+        <v>0.3186456398775226</v>
       </c>
       <c r="N134" t="n">
-        <v>0.9182600963850963</v>
+        <v>0.914886964886965</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -20102,22 +20102,22 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.01504206657409668</v>
+        <v>0.01362967491149902</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004005193710327148</v>
       </c>
       <c r="R134" t="n">
-        <v>0.2772786617279053</v>
+        <v>0.3275978565216064</v>
       </c>
       <c r="S134" t="n">
-        <v>0.01504206657409668</v>
+        <v>0.01362967491149902</v>
       </c>
       <c r="T134" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004005193710327148</v>
       </c>
       <c r="U134" t="n">
-        <v>0.2772786617279053</v>
+        <v>0.3275978565216064</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20126,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="X134" t="n">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="Y134" t="n">
         <v>19</v>
@@ -20138,16 +20138,16 @@
         <v>1</v>
       </c>
       <c r="AB134" t="n">
-        <v>503876</v>
+        <v>499959</v>
       </c>
       <c r="AC134" t="n">
-        <v>503876</v>
+        <v>499959</v>
       </c>
       <c r="AD134" t="n">
-        <v>503876</v>
+        <v>499959</v>
       </c>
       <c r="AE134" t="n">
-        <v>503876</v>
+        <v>499959</v>
       </c>
       <c r="AF134" t="n">
         <v>0</v>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10000, 'learning_rate': 0.07792091886639502, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6326947454697227, 'enable_categorical': False, 'max_depth': 6, 'min_child_weight': 1.0759464955561793}</t>
+          <t>{'n_estimators': 10000, 'learning_rate': 0.06634196266155237, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.975937238416368, 'enable_categorical': False, 'max_depth': 5, 'min_child_weight': 1.4088437184127383}</t>
         </is>
       </c>
       <c r="AL134" t="inlineStr">
         <is>
-          <t>{'n_estimators': 228}</t>
+          <t>{'n_estimators': 236}</t>
         </is>
       </c>
       <c r="AM134" t="inlineStr">
@@ -20204,7 +20204,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>XGBoost_r95</t>
+          <t>XGBoost_r22</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -20238,13 +20238,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.3312444188473281</v>
+        <v>-0.3179463707226055</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3186456398775226</v>
+        <v>0.3418725999480562</v>
       </c>
       <c r="N135" t="n">
-        <v>0.914886964886965</v>
+        <v>0.9182600963850963</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -20252,22 +20252,22 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.02523970603942871</v>
+        <v>0.01377582550048828</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002004146575927734</v>
       </c>
       <c r="R135" t="n">
-        <v>0.3097724914550781</v>
+        <v>0.2998862266540527</v>
       </c>
       <c r="S135" t="n">
-        <v>0.02523970603942871</v>
+        <v>0.01377582550048828</v>
       </c>
       <c r="T135" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002004146575927734</v>
       </c>
       <c r="U135" t="n">
-        <v>0.3097724914550781</v>
+        <v>0.2998862266540527</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20276,7 +20276,7 @@
         <v>1</v>
       </c>
       <c r="X135" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="Y135" t="n">
         <v>19</v>
@@ -20288,16 +20288,16 @@
         <v>1</v>
       </c>
       <c r="AB135" t="n">
-        <v>499959</v>
+        <v>503876</v>
       </c>
       <c r="AC135" t="n">
-        <v>499959</v>
+        <v>503876</v>
       </c>
       <c r="AD135" t="n">
-        <v>499959</v>
+        <v>503876</v>
       </c>
       <c r="AE135" t="n">
-        <v>499959</v>
+        <v>503876</v>
       </c>
       <c r="AF135" t="n">
         <v>0</v>
@@ -20318,12 +20318,12 @@
       </c>
       <c r="AK135" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10000, 'learning_rate': 0.06634196266155237, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.975937238416368, 'enable_categorical': False, 'max_depth': 5, 'min_child_weight': 1.4088437184127383}</t>
+          <t>{'n_estimators': 10000, 'learning_rate': 0.07792091886639502, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6326947454697227, 'enable_categorical': False, 'max_depth': 6, 'min_child_weight': 1.0759464955561793}</t>
         </is>
       </c>
       <c r="AL135" t="inlineStr">
         <is>
-          <t>{'n_estimators': 236}</t>
+          <t>{'n_estimators': 228}</t>
         </is>
       </c>
       <c r="AM135" t="inlineStr">
@@ -20402,22 +20402,22 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.02561664581298828</v>
+        <v>0.02337288856506348</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.003135204315185547</v>
+        <v>0.004005908966064453</v>
       </c>
       <c r="R136" t="n">
-        <v>0.5406026840209961</v>
+        <v>0.6137137413024902</v>
       </c>
       <c r="S136" t="n">
-        <v>0.02561664581298828</v>
+        <v>0.02337288856506348</v>
       </c>
       <c r="T136" t="n">
-        <v>0.003135204315185547</v>
+        <v>0.004005908966064453</v>
       </c>
       <c r="U136" t="n">
-        <v>0.5406026840209961</v>
+        <v>0.6137137413024902</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20552,22 +20552,22 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.01406717300415039</v>
+        <v>0.01177835464477539</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>0.00600743293762207</v>
       </c>
       <c r="R137" t="n">
-        <v>1.23707127571106</v>
+        <v>1.276577711105347</v>
       </c>
       <c r="S137" t="n">
-        <v>0.01406717300415039</v>
+        <v>0.01177835464477539</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.00600743293762207</v>
       </c>
       <c r="U137" t="n">
-        <v>1.23707127571106</v>
+        <v>1.276577711105347</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20700,18 +20700,18 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.01286053657531738</v>
+        <v>0.01142668724060059</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>0.42142653465271</v>
+        <v>0.4111855030059814</v>
       </c>
       <c r="S138" t="n">
-        <v>0.01286053657531738</v>
+        <v>0.01142668724060059</v>
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>0.42142653465271</v>
+        <v>0.4111855030059814</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20844,18 +20844,18 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.06660604476928711</v>
+        <v>0.0660245418548584</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
-        <v>0.633275032043457</v>
+        <v>0.6409780979156494</v>
       </c>
       <c r="S139" t="n">
-        <v>0.06660604476928711</v>
+        <v>0.0660245418548584</v>
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>0.633275032043457</v>
+        <v>0.6409780979156494</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -20988,18 +20988,18 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.01177406311035156</v>
+        <v>0.01202297210693359</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
-        <v>0.9702198505401611</v>
+        <v>0.9797878265380859</v>
       </c>
       <c r="S140" t="n">
-        <v>0.01177406311035156</v>
+        <v>0.01202297210693359</v>
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>0.9702198505401611</v>
+        <v>0.9797878265380859</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21132,18 +21132,18 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.06589818000793457</v>
+        <v>0.06263923645019531</v>
       </c>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="n">
-        <v>0.5135960578918457</v>
+        <v>0.5153434276580811</v>
       </c>
       <c r="S141" t="n">
-        <v>0.06589818000793457</v>
+        <v>0.06263923645019531</v>
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>0.5135960578918457</v>
+        <v>0.5153434276580811</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21278,22 +21278,22 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.009760141372680664</v>
+        <v>0.01177763938903809</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>0.01559805870056152</v>
       </c>
       <c r="R142" t="n">
-        <v>0.765413761138916</v>
+        <v>0.7999312877655029</v>
       </c>
       <c r="S142" t="n">
-        <v>0.009760141372680664</v>
+        <v>0.01177763938903809</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>0.01559805870056152</v>
       </c>
       <c r="U142" t="n">
-        <v>0.765413761138916</v>
+        <v>0.7999312877655029</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21426,18 +21426,18 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.01577496528625488</v>
+        <v>0.01176261901855469</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
-        <v>0.1609070301055908</v>
+        <v>0.1658816337585449</v>
       </c>
       <c r="S143" t="n">
-        <v>0.01577496528625488</v>
+        <v>0.01176261901855469</v>
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>0.1609070301055908</v>
+        <v>0.1658816337585449</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21570,18 +21570,18 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.01630926132202148</v>
+        <v>0.01376605033874512</v>
       </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="n">
-        <v>0.9677143096923828</v>
+        <v>0.9628584384918213</v>
       </c>
       <c r="S144" t="n">
-        <v>0.01630926132202148</v>
+        <v>0.01376605033874512</v>
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>0.9677143096923828</v>
+        <v>0.9628584384918213</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21714,18 +21714,18 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>0.003698110580444336</v>
       </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
-        <v>1.709548473358154</v>
+        <v>1.857489347457886</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>0.003698110580444336</v>
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>1.709548473358154</v>
+        <v>1.857489347457886</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21858,18 +21858,18 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.01002931594848633</v>
+        <v>0.01040124893188477</v>
       </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
-        <v>0.07256770133972168</v>
+        <v>0.1000795364379883</v>
       </c>
       <c r="S146" t="n">
-        <v>0.01002931594848633</v>
+        <v>0.01040124893188477</v>
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>0.07256770133972168</v>
+        <v>0.1000795364379883</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -22002,18 +22002,18 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.01323795318603516</v>
+        <v>0.01096487045288086</v>
       </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="n">
-        <v>0.2769770622253418</v>
+        <v>0.2941381931304932</v>
       </c>
       <c r="S147" t="n">
-        <v>0.01323795318603516</v>
+        <v>0.01096487045288086</v>
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>0.2769770622253418</v>
+        <v>0.2941381931304932</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22100,7 +22100,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>XGBoost_r33</t>
+          <t>XGBoost_r31</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -22134,13 +22134,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.3691810730029345</v>
+        <v>-0.349753663526604</v>
       </c>
       <c r="M148" t="n">
-        <v>0.2540567564062992</v>
+        <v>0.2868267814772258</v>
       </c>
       <c r="N148" t="n">
-        <v>0.9224021907211563</v>
+        <v>0.9226997308247309</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -22148,22 +22148,22 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.04107761383056641</v>
+        <v>0.03636956214904785</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.004027843475341797</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="R148" t="n">
-        <v>0.9275617599487305</v>
+        <v>1.063462734222412</v>
       </c>
       <c r="S148" t="n">
-        <v>0.04107761383056641</v>
+        <v>0.03636956214904785</v>
       </c>
       <c r="T148" t="n">
-        <v>0.004027843475341797</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="U148" t="n">
-        <v>0.9275617599487305</v>
+        <v>1.063462734222412</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>1</v>
       </c>
       <c r="X148" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="Y148" t="n">
         <v>19</v>
@@ -22184,16 +22184,16 @@
         <v>1</v>
       </c>
       <c r="AB148" t="n">
-        <v>1785965</v>
+        <v>1919199</v>
       </c>
       <c r="AC148" t="n">
-        <v>1785965</v>
+        <v>1919199</v>
       </c>
       <c r="AD148" t="n">
-        <v>1785965</v>
+        <v>1919199</v>
       </c>
       <c r="AE148" t="n">
-        <v>1785965</v>
+        <v>1919199</v>
       </c>
       <c r="AF148" t="n">
         <v>0</v>
@@ -22214,12 +22214,12 @@
       </c>
       <c r="AK148" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10000, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
+          <t>{'n_estimators': 10000, 'learning_rate': 0.009974712407899168, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.7506621909633511, 'enable_categorical': False, 'max_depth': 4, 'min_child_weight': 0.9238550485581797}</t>
         </is>
       </c>
       <c r="AL148" t="inlineStr">
         <is>
-          <t>{'n_estimators': 1285}</t>
+          <t>{'n_estimators': 1391}</t>
         </is>
       </c>
       <c r="AM148" t="inlineStr">
@@ -22250,7 +22250,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>XGBoost_r31</t>
+          <t>XGBoost_r33</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -22284,13 +22284,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.349753663526604</v>
+        <v>-0.3691810730029345</v>
       </c>
       <c r="M149" t="n">
-        <v>0.2868267814772258</v>
+        <v>0.2540567564062992</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9226997308247309</v>
+        <v>0.9224021907211563</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -22298,22 +22298,22 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.04261183738708496</v>
+        <v>0.03816795349121094</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="R149" t="n">
-        <v>0.972053050994873</v>
+        <v>1.012666940689087</v>
       </c>
       <c r="S149" t="n">
-        <v>0.04261183738708496</v>
+        <v>0.03816795349121094</v>
       </c>
       <c r="T149" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="U149" t="n">
-        <v>0.972053050994873</v>
+        <v>1.012666940689087</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22322,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="X149" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y149" t="n">
         <v>19</v>
@@ -22334,16 +22334,16 @@
         <v>1</v>
       </c>
       <c r="AB149" t="n">
-        <v>1919199</v>
+        <v>1785965</v>
       </c>
       <c r="AC149" t="n">
-        <v>1919199</v>
+        <v>1785965</v>
       </c>
       <c r="AD149" t="n">
-        <v>1919199</v>
+        <v>1785965</v>
       </c>
       <c r="AE149" t="n">
-        <v>1919199</v>
+        <v>1785965</v>
       </c>
       <c r="AF149" t="n">
         <v>0</v>
@@ -22364,12 +22364,12 @@
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10000, 'learning_rate': 0.009974712407899168, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.7506621909633511, 'enable_categorical': False, 'max_depth': 4, 'min_child_weight': 0.9238550485581797}</t>
+          <t>{'n_estimators': 10000, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
         </is>
       </c>
       <c r="AL149" t="inlineStr">
         <is>
-          <t>{'n_estimators': 1391}</t>
+          <t>{'n_estimators': 1285}</t>
         </is>
       </c>
       <c r="AM149" t="inlineStr">
@@ -22446,18 +22446,18 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.01577353477478027</v>
+        <v>0.01579022407531738</v>
       </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="n">
-        <v>0.8085474967956543</v>
+        <v>0.8135347366333008</v>
       </c>
       <c r="S150" t="n">
-        <v>0.01577353477478027</v>
+        <v>0.01579022407531738</v>
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="n">
-        <v>0.8085474967956543</v>
+        <v>0.8135347366333008</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22592,22 +22592,22 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.0122988224029541</v>
+        <v>0.009768247604370117</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.003067731857299805</v>
       </c>
       <c r="R151" t="n">
-        <v>0.2748746871948242</v>
+        <v>0.2821245193481445</v>
       </c>
       <c r="S151" t="n">
-        <v>0.0122988224029541</v>
+        <v>0.009768247604370117</v>
       </c>
       <c r="T151" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.003067731857299805</v>
       </c>
       <c r="U151" t="n">
-        <v>0.2748746871948242</v>
+        <v>0.2821245193481445</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22740,18 +22740,18 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.02077364921569824</v>
+        <v>0.01778221130371094</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>0.5313305854797363</v>
+        <v>0.5686807632446289</v>
       </c>
       <c r="S152" t="n">
-        <v>0.00299835205078125</v>
+        <v>0.001997947692871094</v>
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>0.1156659126281738</v>
+        <v>0.1068203449249268</v>
       </c>
       <c r="V152" t="n">
         <v>2</v>
@@ -22902,22 +22902,22 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.008447408676147461</v>
+        <v>0.003584861755371094</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.01734185218811035</v>
+        <v>0.01543855667114258</v>
       </c>
       <c r="R153" t="n">
-        <v>1.708704471588135</v>
+        <v>1.78314733505249</v>
       </c>
       <c r="S153" t="n">
-        <v>0.008447408676147461</v>
+        <v>0.003584861755371094</v>
       </c>
       <c r="T153" t="n">
-        <v>0.01734185218811035</v>
+        <v>0.01543855667114258</v>
       </c>
       <c r="U153" t="n">
-        <v>1.708704471588135</v>
+        <v>1.78314733505249</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -23052,22 +23052,22 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.06650114059448242</v>
+        <v>0.06901144981384277</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05369734764099121</v>
+        <v>0.05513691902160645</v>
       </c>
       <c r="R154" t="n">
-        <v>0.7581024169921875</v>
+        <v>0.9992144107818604</v>
       </c>
       <c r="S154" t="n">
-        <v>0.06650114059448242</v>
+        <v>0.06901144981384277</v>
       </c>
       <c r="T154" t="n">
-        <v>0.05369734764099121</v>
+        <v>0.05513691902160645</v>
       </c>
       <c r="U154" t="n">
-        <v>0.7581024169921875</v>
+        <v>0.9992144107818604</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23200,18 +23200,18 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.01001501083374023</v>
+        <v>0.00802302360534668</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
-        <v>0.05574774742126465</v>
+        <v>0.06072235107421875</v>
       </c>
       <c r="S155" t="n">
-        <v>0.01001501083374023</v>
+        <v>0.00802302360534668</v>
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>0.05574774742126465</v>
+        <v>0.06072235107421875</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23346,22 +23346,22 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.01910066604614258</v>
+        <v>0.01977944374084473</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.003471851348876953</v>
       </c>
       <c r="R156" t="n">
-        <v>0.3582260608673096</v>
+        <v>0.3447966575622559</v>
       </c>
       <c r="S156" t="n">
-        <v>0.01910066604614258</v>
+        <v>0.01977944374084473</v>
       </c>
       <c r="T156" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.003471851348876953</v>
       </c>
       <c r="U156" t="n">
-        <v>0.3582260608673096</v>
+        <v>0.3447966575622559</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23496,22 +23496,22 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.05156278610229492</v>
+        <v>0.05036759376525879</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.03817200660705566</v>
+        <v>0.03842496871948242</v>
       </c>
       <c r="R157" t="n">
-        <v>0.5133752822875977</v>
+        <v>0.6036036014556885</v>
       </c>
       <c r="S157" t="n">
-        <v>0.05156278610229492</v>
+        <v>0.05036759376525879</v>
       </c>
       <c r="T157" t="n">
-        <v>0.03817200660705566</v>
+        <v>0.03842496871948242</v>
       </c>
       <c r="U157" t="n">
-        <v>0.5133752822875977</v>
+        <v>0.6036036014556885</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23648,14 +23648,14 @@
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="n">
-        <v>0.3483247756958008</v>
+        <v>0.3425142765045166</v>
       </c>
       <c r="S158" t="n">
         <v>0</v>
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>0.3483247756958008</v>
+        <v>0.3425142765045166</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23790,22 +23790,22 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.009000301361083984</v>
+        <v>0.008608341217041016</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.005750656127929688</v>
+        <v>0.00775146484375</v>
       </c>
       <c r="R159" t="n">
-        <v>1.277140617370605</v>
+        <v>1.326162099838257</v>
       </c>
       <c r="S159" t="n">
-        <v>0.009000301361083984</v>
+        <v>0.008608341217041016</v>
       </c>
       <c r="T159" t="n">
-        <v>0.005750656127929688</v>
+        <v>0.00775146484375</v>
       </c>
       <c r="U159" t="n">
-        <v>1.277140617370605</v>
+        <v>1.326162099838257</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23938,18 +23938,18 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.006048440933227539</v>
+        <v>0.0209043025970459</v>
       </c>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>1.168570280075073</v>
+        <v>1.176961660385132</v>
       </c>
       <c r="S160" t="n">
-        <v>0.006048440933227539</v>
+        <v>0.0209043025970459</v>
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>1.168570280075073</v>
+        <v>1.176961660385132</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24084,22 +24084,22 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.01002883911132812</v>
+        <v>0.0151519775390625</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.008322477340698242</v>
+        <v>0.007998943328857422</v>
       </c>
       <c r="R161" t="n">
-        <v>2.213265419006348</v>
+        <v>2.231997728347778</v>
       </c>
       <c r="S161" t="n">
-        <v>0.01002883911132812</v>
+        <v>0.0151519775390625</v>
       </c>
       <c r="T161" t="n">
-        <v>0.008322477340698242</v>
+        <v>0.007998943328857422</v>
       </c>
       <c r="U161" t="n">
-        <v>2.213265419006348</v>
+        <v>2.231997728347778</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24234,22 +24234,22 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01616048812866211</v>
+        <v>0.01377558708190918</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.01987648010253906</v>
+        <v>0.0157158374786377</v>
       </c>
       <c r="R162" t="n">
-        <v>2.129767179489136</v>
+        <v>2.211801528930664</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01616048812866211</v>
+        <v>0.01377558708190918</v>
       </c>
       <c r="T162" t="n">
-        <v>0.01987648010253906</v>
+        <v>0.0157158374786377</v>
       </c>
       <c r="U162" t="n">
-        <v>2.129767179489136</v>
+        <v>2.211801528930664</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24382,18 +24382,18 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.010986328125</v>
+        <v>0.01176810264587402</v>
       </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>0.2850167751312256</v>
+        <v>0.2681875228881836</v>
       </c>
       <c r="S163" t="n">
-        <v>0.010986328125</v>
+        <v>0.01176810264587402</v>
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>0.2850167751312256</v>
+        <v>0.2681875228881836</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24528,22 +24528,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.01826786994934082</v>
+        <v>0.02479696273803711</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.001561880111694336</v>
+        <v>0.007250070571899414</v>
       </c>
       <c r="R164" t="n">
-        <v>1.322808980941772</v>
+        <v>1.320364475250244</v>
       </c>
       <c r="S164" t="n">
-        <v>0.002073049545288086</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="T164" t="n">
-        <v>0.001561880111694336</v>
+        <v>0.001242160797119141</v>
       </c>
       <c r="U164" t="n">
-        <v>0.1156659126281738</v>
+        <v>0.1068203449249268</v>
       </c>
       <c r="V164" t="n">
         <v>2</v>
@@ -24694,22 +24694,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.0637657642364502</v>
+        <v>0.06447148323059082</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.03733062744140625</v>
+        <v>0.04095983505249023</v>
       </c>
       <c r="R165" t="n">
-        <v>0.5458002090454102</v>
+        <v>0.5591843128204346</v>
       </c>
       <c r="S165" t="n">
-        <v>0.0637657642364502</v>
+        <v>0.06447148323059082</v>
       </c>
       <c r="T165" t="n">
-        <v>0.03733062744140625</v>
+        <v>0.04095983505249023</v>
       </c>
       <c r="U165" t="n">
-        <v>0.5458002090454102</v>
+        <v>0.5591843128204346</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24842,18 +24842,18 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.05029559135437012</v>
+        <v>0.06132841110229492</v>
       </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>0.6550412178039551</v>
+        <v>0.7008264064788818</v>
       </c>
       <c r="S166" t="n">
-        <v>0.05029559135437012</v>
+        <v>0.06132841110229492</v>
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>0.6550412178039551</v>
+        <v>0.7008264064788818</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24986,18 +24986,18 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01303601264953613</v>
+        <v>0.01352524757385254</v>
       </c>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
-        <v>0.431004524230957</v>
+        <v>0.4480016231536865</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01303601264953613</v>
+        <v>0.01352524757385254</v>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="n">
-        <v>0.431004524230957</v>
+        <v>0.4480016231536865</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25130,18 +25130,18 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.05137419700622559</v>
+        <v>0.04992985725402832</v>
       </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="n">
-        <v>0.5108380317687988</v>
+        <v>0.5226278305053711</v>
       </c>
       <c r="S168" t="n">
-        <v>0.05137419700622559</v>
+        <v>0.04992985725402832</v>
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="n">
-        <v>0.5108380317687988</v>
+        <v>0.5226278305053711</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25274,18 +25274,18 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.01304149627685547</v>
+        <v>0.01402735710144043</v>
       </c>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="n">
-        <v>1.319835901260376</v>
+        <v>1.390284776687622</v>
       </c>
       <c r="S169" t="n">
-        <v>0.01304149627685547</v>
+        <v>0.01402735710144043</v>
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="n">
-        <v>1.319835901260376</v>
+        <v>1.390284776687622</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25420,22 +25420,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.05313253402709961</v>
+        <v>0.04970860481262207</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.04050803184509277</v>
+        <v>0.03807616233825684</v>
       </c>
       <c r="R170" t="n">
-        <v>0.5261399745941162</v>
+        <v>0.5274949073791504</v>
       </c>
       <c r="S170" t="n">
-        <v>0.05313253402709961</v>
+        <v>0.04970860481262207</v>
       </c>
       <c r="T170" t="n">
-        <v>0.04050803184509277</v>
+        <v>0.03807616233825684</v>
       </c>
       <c r="U170" t="n">
-        <v>0.5261399745941162</v>
+        <v>0.5274949073791504</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25570,22 +25570,22 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.06668519973754883</v>
+        <v>0.06988096237182617</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.03918886184692383</v>
+        <v>0.03824472427368164</v>
       </c>
       <c r="R171" t="n">
-        <v>0.8531732559204102</v>
+        <v>0.6272463798522949</v>
       </c>
       <c r="S171" t="n">
-        <v>0.06668519973754883</v>
+        <v>0.06988096237182617</v>
       </c>
       <c r="T171" t="n">
-        <v>0.03918886184692383</v>
+        <v>0.03824472427368164</v>
       </c>
       <c r="U171" t="n">
-        <v>0.8531732559204102</v>
+        <v>0.6272463798522949</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25720,22 +25720,22 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.008013725280761719</v>
+        <v>0.008014202117919922</v>
       </c>
       <c r="Q172" t="n">
         <v>0</v>
       </c>
       <c r="R172" t="n">
-        <v>0.2768304347991943</v>
+        <v>0.2898633480072021</v>
       </c>
       <c r="S172" t="n">
-        <v>0.008013725280761719</v>
+        <v>0.008014202117919922</v>
       </c>
       <c r="T172" t="n">
         <v>0</v>
       </c>
       <c r="U172" t="n">
-        <v>0.2768304347991943</v>
+        <v>0.2898633480072021</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25870,22 +25870,22 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.008460283279418945</v>
+        <v>0.009400129318237305</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.0156710147857666</v>
+        <v>0.00600886344909668</v>
       </c>
       <c r="R173" t="n">
-        <v>1.062275886535645</v>
+        <v>1.212815523147583</v>
       </c>
       <c r="S173" t="n">
-        <v>0.008460283279418945</v>
+        <v>0.009400129318237305</v>
       </c>
       <c r="T173" t="n">
-        <v>0.0156710147857666</v>
+        <v>0.00600886344909668</v>
       </c>
       <c r="U173" t="n">
-        <v>1.062275886535645</v>
+        <v>1.212815523147583</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -26018,18 +26018,18 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.01298618316650391</v>
+        <v>0.009758710861206055</v>
       </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="n">
-        <v>1.555142879486084</v>
+        <v>1.579691410064697</v>
       </c>
       <c r="S174" t="n">
-        <v>0.01298618316650391</v>
+        <v>0.009758710861206055</v>
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>1.555142879486084</v>
+        <v>1.579691410064697</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26164,22 +26164,22 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.01376914978027344</v>
+        <v>0.01203560829162598</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.01605749130249023</v>
+        <v>0.01567316055297852</v>
       </c>
       <c r="R175" t="n">
-        <v>0.479642391204834</v>
+        <v>0.5018656253814697</v>
       </c>
       <c r="S175" t="n">
-        <v>0.01376914978027344</v>
+        <v>0.01203560829162598</v>
       </c>
       <c r="T175" t="n">
-        <v>0.01605749130249023</v>
+        <v>0.01567316055297852</v>
       </c>
       <c r="U175" t="n">
-        <v>0.479642391204834</v>
+        <v>0.5018656253814697</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26312,18 +26312,18 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.04861831665039062</v>
+        <v>0.05443334579467773</v>
       </c>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="n">
-        <v>0.5233993530273438</v>
+        <v>0.5167181491851807</v>
       </c>
       <c r="S176" t="n">
-        <v>0.04861831665039062</v>
+        <v>0.05443334579467773</v>
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="n">
-        <v>0.5233993530273438</v>
+        <v>0.5167181491851807</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26456,18 +26456,18 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.06525015830993652</v>
+        <v>0.06835436820983887</v>
       </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="n">
-        <v>1.162099361419678</v>
+        <v>0.75760817527771</v>
       </c>
       <c r="S177" t="n">
-        <v>0.06525015830993652</v>
+        <v>0.06835436820983887</v>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>1.162099361419678</v>
+        <v>0.75760817527771</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26600,18 +26600,18 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.01353788375854492</v>
+        <v>0.01577067375183105</v>
       </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="n">
-        <v>1.642744064331055</v>
+        <v>1.750736713409424</v>
       </c>
       <c r="S178" t="n">
-        <v>0.01353788375854492</v>
+        <v>0.01577067375183105</v>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>1.642744064331055</v>
+        <v>1.750736713409424</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26744,18 +26744,18 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.01403117179870605</v>
+        <v>0.01302695274353027</v>
       </c>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="n">
-        <v>0.4692230224609375</v>
+        <v>0.4884147644042969</v>
       </c>
       <c r="S179" t="n">
-        <v>0.01403117179870605</v>
+        <v>0.01302695274353027</v>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>0.4692230224609375</v>
+        <v>0.4884147644042969</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26888,18 +26888,18 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.01209425926208496</v>
+        <v>0.01274514198303223</v>
       </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
-        <v>0.5792534351348877</v>
+        <v>0.5503909587860107</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01209425926208496</v>
+        <v>0.01274514198303223</v>
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>0.5792534351348877</v>
+        <v>0.5503909587860107</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27034,22 +27034,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.01377010345458984</v>
+        <v>0.01302766799926758</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.01025629043579102</v>
+        <v>0.006997585296630859</v>
       </c>
       <c r="R181" t="n">
-        <v>2.349087476730347</v>
+        <v>2.418603420257568</v>
       </c>
       <c r="S181" t="n">
-        <v>0.01377010345458984</v>
+        <v>0.01302766799926758</v>
       </c>
       <c r="T181" t="n">
-        <v>0.01025629043579102</v>
+        <v>0.006997585296630859</v>
       </c>
       <c r="U181" t="n">
-        <v>2.349087476730347</v>
+        <v>2.418603420257568</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27182,18 +27182,18 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01825451850891113</v>
+        <v>0.01573824882507324</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="n">
-        <v>1.303317070007324</v>
+        <v>1.280868768692017</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01825451850891113</v>
+        <v>0.01573824882507324</v>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>1.303317070007324</v>
+        <v>1.280868768692017</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27326,18 +27326,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.01001882553100586</v>
+        <v>0.01003050804138184</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>0.2636702060699463</v>
+        <v>0.2929816246032715</v>
       </c>
       <c r="S183" t="n">
-        <v>0.01001882553100586</v>
+        <v>0.01003050804138184</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>0.2636702060699463</v>
+        <v>0.2929816246032715</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27472,22 +27472,22 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.009761810302734375</v>
+        <v>0.0115349292755127</v>
       </c>
       <c r="Q184" t="n">
-        <v>0</v>
+        <v>0.006007909774780273</v>
       </c>
       <c r="R184" t="n">
-        <v>0.8256547451019287</v>
+        <v>0.8395462036132812</v>
       </c>
       <c r="S184" t="n">
-        <v>0.009761810302734375</v>
+        <v>0.0115349292755127</v>
       </c>
       <c r="T184" t="n">
-        <v>0</v>
+        <v>0.006007909774780273</v>
       </c>
       <c r="U184" t="n">
-        <v>0.8256547451019287</v>
+        <v>0.8395462036132812</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27620,18 +27620,18 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.01312971115112305</v>
+        <v>0.01376724243164062</v>
       </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="n">
-        <v>0.5256333351135254</v>
+        <v>0.5133213996887207</v>
       </c>
       <c r="S185" t="n">
-        <v>0.01312971115112305</v>
+        <v>0.01376724243164062</v>
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>0.5256333351135254</v>
+        <v>0.5133213996887207</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27766,22 +27766,22 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.06503129005432129</v>
+        <v>0.05622434616088867</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.03820705413818359</v>
+        <v>0.041534423828125</v>
       </c>
       <c r="R186" t="n">
-        <v>0.5325112342834473</v>
+        <v>0.5455820560455322</v>
       </c>
       <c r="S186" t="n">
-        <v>0.06503129005432129</v>
+        <v>0.05622434616088867</v>
       </c>
       <c r="T186" t="n">
-        <v>0.03820705413818359</v>
+        <v>0.041534423828125</v>
       </c>
       <c r="U186" t="n">
-        <v>0.5325112342834473</v>
+        <v>0.5455820560455322</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27916,22 +27916,22 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.007261991500854492</v>
+        <v>0.006760120391845703</v>
       </c>
       <c r="R187" t="n">
-        <v>0.8645772933959961</v>
+        <v>0.9152100086212158</v>
       </c>
       <c r="S187" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="T187" t="n">
-        <v>0.007261991500854492</v>
+        <v>0.006760120391845703</v>
       </c>
       <c r="U187" t="n">
-        <v>0.8645772933959961</v>
+        <v>0.9152100086212158</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -28066,22 +28066,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.008013248443603516</v>
+        <v>0.0080108642578125</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.007001161575317383</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="R188" t="n">
-        <v>0.2949235439300537</v>
+        <v>0.3186161518096924</v>
       </c>
       <c r="S188" t="n">
-        <v>0.008013248443603516</v>
+        <v>0.0080108642578125</v>
       </c>
       <c r="T188" t="n">
-        <v>0.007001161575317383</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="U188" t="n">
-        <v>0.2949235439300537</v>
+        <v>0.3186161518096924</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28214,18 +28214,18 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.008858680725097656</v>
+        <v>0.01032614707946777</v>
       </c>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="n">
-        <v>0.26576828956604</v>
+        <v>0.2970178127288818</v>
       </c>
       <c r="S189" t="n">
-        <v>0.008858680725097656</v>
+        <v>0.01032614707946777</v>
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>0.26576828956604</v>
+        <v>0.2970178127288818</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28358,18 +28358,18 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.0140225887298584</v>
+        <v>0.0155329704284668</v>
       </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
-        <v>0.1325829029083252</v>
+        <v>0.1555414199829102</v>
       </c>
       <c r="S190" t="n">
-        <v>0.0140225887298584</v>
+        <v>0.0155329704284668</v>
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>0.1325829029083252</v>
+        <v>0.1555414199829102</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28502,18 +28502,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.006172657012939453</v>
+        <v>0.01085901260375977</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.2304816246032715</v>
+        <v>0.2466533184051514</v>
       </c>
       <c r="S191" t="n">
-        <v>0.006172657012939453</v>
+        <v>0.01085901260375977</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.2304816246032715</v>
+        <v>0.2466533184051514</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28648,22 +28648,22 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.01289963722229004</v>
+        <v>0.01445460319519043</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.01890468597412109</v>
+        <v>0</v>
       </c>
       <c r="R192" t="n">
-        <v>0.7951180934906006</v>
+        <v>0.8452253341674805</v>
       </c>
       <c r="S192" t="n">
-        <v>0.01289963722229004</v>
+        <v>0.01445460319519043</v>
       </c>
       <c r="T192" t="n">
-        <v>0.01890468597412109</v>
+        <v>0</v>
       </c>
       <c r="U192" t="n">
-        <v>0.7951180934906006</v>
+        <v>0.8452253341674805</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.01003003120422363</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.006007194519042969</v>
+        <v>0.009006738662719727</v>
       </c>
       <c r="R193" t="n">
-        <v>1.019311666488647</v>
+        <v>1.073144197463989</v>
       </c>
       <c r="S193" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.01003003120422363</v>
       </c>
       <c r="T193" t="n">
-        <v>0.006007194519042969</v>
+        <v>0.009006738662719727</v>
       </c>
       <c r="U193" t="n">
-        <v>1.019311666488647</v>
+        <v>1.073144197463989</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28948,22 +28948,22 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.0135347843170166</v>
+        <v>0.01377129554748535</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.007599592208862305</v>
+        <v>0.01094174385070801</v>
       </c>
       <c r="R194" t="n">
-        <v>0.7515747547149658</v>
+        <v>0.7580010890960693</v>
       </c>
       <c r="S194" t="n">
-        <v>0.0135347843170166</v>
+        <v>0.01377129554748535</v>
       </c>
       <c r="T194" t="n">
-        <v>0.007599592208862305</v>
+        <v>0.01094174385070801</v>
       </c>
       <c r="U194" t="n">
-        <v>0.7515747547149658</v>
+        <v>0.7580010890960693</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29098,22 +29098,22 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01354026794433594</v>
+        <v>0.01402831077575684</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.005848169326782227</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="R195" t="n">
-        <v>0.5321969985961914</v>
+        <v>0.5569467544555664</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01354026794433594</v>
+        <v>0.01402831077575684</v>
       </c>
       <c r="T195" t="n">
-        <v>0.005848169326782227</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="U195" t="n">
-        <v>0.5321969985961914</v>
+        <v>0.5569467544555664</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29248,22 +29248,22 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.01577210426330566</v>
+        <v>0.0145866870880127</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.01917052268981934</v>
+        <v>0.02019572257995605</v>
       </c>
       <c r="R196" t="n">
-        <v>2.220309972763062</v>
+        <v>2.254345178604126</v>
       </c>
       <c r="S196" t="n">
-        <v>0.01577210426330566</v>
+        <v>0.0145866870880127</v>
       </c>
       <c r="T196" t="n">
-        <v>0.01917052268981934</v>
+        <v>0.02019572257995605</v>
       </c>
       <c r="U196" t="n">
-        <v>2.220309972763062</v>
+        <v>2.254345178604126</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29398,22 +29398,22 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.01001858711242676</v>
+        <v>0.008023977279663086</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.00099945068359375</v>
+        <v>0</v>
       </c>
       <c r="R197" t="n">
-        <v>0.6533043384552002</v>
+        <v>0.6536822319030762</v>
       </c>
       <c r="S197" t="n">
-        <v>0.01001858711242676</v>
+        <v>0.008023977279663086</v>
       </c>
       <c r="T197" t="n">
-        <v>0.00099945068359375</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
-        <v>0.6533043384552002</v>
+        <v>0.6536822319030762</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29546,18 +29546,18 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.008721351623535156</v>
       </c>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="n">
-        <v>0.07601499557495117</v>
+        <v>0.08429193496704102</v>
       </c>
       <c r="S198" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.008721351623535156</v>
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="n">
-        <v>0.07601499557495117</v>
+        <v>0.08429193496704102</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29692,22 +29692,22 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.06824851036071777</v>
+        <v>0.05437898635864258</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.04502558708190918</v>
+        <v>0.0538938045501709</v>
       </c>
       <c r="R199" t="n">
-        <v>1.021202802658081</v>
+        <v>0.7599112987518311</v>
       </c>
       <c r="S199" t="n">
-        <v>0.06824851036071777</v>
+        <v>0.05437898635864258</v>
       </c>
       <c r="T199" t="n">
-        <v>0.04502558708190918</v>
+        <v>0.0538938045501709</v>
       </c>
       <c r="U199" t="n">
-        <v>1.021202802658081</v>
+        <v>0.7599112987518311</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29842,22 +29842,22 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.01303982734680176</v>
+        <v>0.01176214218139648</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.005747318267822266</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="R200" t="n">
-        <v>1.808662176132202</v>
+        <v>1.906701326370239</v>
       </c>
       <c r="S200" t="n">
-        <v>0.01303982734680176</v>
+        <v>0.01176214218139648</v>
       </c>
       <c r="T200" t="n">
-        <v>0.005747318267822266</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="U200" t="n">
-        <v>1.808662176132202</v>
+        <v>1.906701326370239</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29990,18 +29990,18 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.01587057113647461</v>
+        <v>0.01779508590698242</v>
       </c>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="n">
-        <v>1.195548057556152</v>
+        <v>1.23934268951416</v>
       </c>
       <c r="S201" t="n">
-        <v>0.01587057113647461</v>
+        <v>0.01779508590698242</v>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="n">
-        <v>1.195548057556152</v>
+        <v>1.23934268951416</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30136,22 +30136,22 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0</v>
+        <v>0.007776737213134766</v>
       </c>
       <c r="Q202" t="n">
-        <v>0</v>
+        <v>0.01566028594970703</v>
       </c>
       <c r="R202" t="n">
-        <v>0.7767210006713867</v>
+        <v>0.8011724948883057</v>
       </c>
       <c r="S202" t="n">
-        <v>0</v>
+        <v>0.007776737213134766</v>
       </c>
       <c r="T202" t="n">
-        <v>0</v>
+        <v>0.01566028594970703</v>
       </c>
       <c r="U202" t="n">
-        <v>0.7767210006713867</v>
+        <v>0.8011724948883057</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30284,18 +30284,18 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.007530927658081055</v>
+        <v>0.008699417114257812</v>
       </c>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="n">
-        <v>0.2496738433837891</v>
+        <v>0.260753870010376</v>
       </c>
       <c r="S203" t="n">
-        <v>0.007530927658081055</v>
+        <v>0.008699417114257812</v>
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="n">
-        <v>0.2496738433837891</v>
+        <v>0.260753870010376</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30428,18 +30428,18 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.0150301456451416</v>
+        <v>0.0139009952545166</v>
       </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="n">
-        <v>1.604785442352295</v>
+        <v>1.67142653465271</v>
       </c>
       <c r="S204" t="n">
-        <v>0.0150301456451416</v>
+        <v>0.0139009952545166</v>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>1.604785442352295</v>
+        <v>1.67142653465271</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30572,18 +30572,18 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.01264071464538574</v>
+        <v>0.01378297805786133</v>
       </c>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="n">
-        <v>0.4100289344787598</v>
+        <v>0.4011154174804688</v>
       </c>
       <c r="S205" t="n">
-        <v>0.01264071464538574</v>
+        <v>0.01378297805786133</v>
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>0.4100289344787598</v>
+        <v>0.4011154174804688</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30718,22 +30718,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.01082754135131836</v>
+        <v>0.01001763343811035</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.004005193710327148</v>
+        <v>0.003777742385864258</v>
       </c>
       <c r="R206" t="n">
-        <v>1.238702774047852</v>
+        <v>1.304747104644775</v>
       </c>
       <c r="S206" t="n">
-        <v>0.01082754135131836</v>
+        <v>0.01001763343811035</v>
       </c>
       <c r="T206" t="n">
-        <v>0.004005193710327148</v>
+        <v>0.003777742385864258</v>
       </c>
       <c r="U206" t="n">
-        <v>1.238702774047852</v>
+        <v>1.304747104644775</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30866,18 +30866,18 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.01203632354736328</v>
+        <v>0.01445841789245605</v>
       </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="n">
-        <v>0.4590201377868652</v>
+        <v>0.4736158847808838</v>
       </c>
       <c r="S207" t="n">
-        <v>0.01203632354736328</v>
+        <v>0.01445841789245605</v>
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>0.4590201377868652</v>
+        <v>0.4736158847808838</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31012,22 +31012,22 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.01354050636291504</v>
+        <v>0.01404237747192383</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.007082223892211914</v>
+        <v>0.006006240844726562</v>
       </c>
       <c r="R208" t="n">
-        <v>0.5697453022003174</v>
+        <v>0.5756845474243164</v>
       </c>
       <c r="S208" t="n">
-        <v>0.01354050636291504</v>
+        <v>0.01404237747192383</v>
       </c>
       <c r="T208" t="n">
-        <v>0.007082223892211914</v>
+        <v>0.006006240844726562</v>
       </c>
       <c r="U208" t="n">
-        <v>0.5697453022003174</v>
+        <v>0.5756845474243164</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31162,22 +31162,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.006356477737426758</v>
+        <v>0.002696037292480469</v>
       </c>
       <c r="Q209" t="n">
         <v>0</v>
       </c>
       <c r="R209" t="n">
-        <v>2.417208433151245</v>
+        <v>2.440616130828857</v>
       </c>
       <c r="S209" t="n">
-        <v>0.006356477737426758</v>
+        <v>0.002696037292480469</v>
       </c>
       <c r="T209" t="n">
         <v>0</v>
       </c>
       <c r="U209" t="n">
-        <v>2.417208433151245</v>
+        <v>2.440616130828857</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31312,22 +31312,22 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01502895355224609</v>
+        <v>0.01703286170959473</v>
       </c>
       <c r="Q210" t="n">
-        <v>0</v>
+        <v>0.008008003234863281</v>
       </c>
       <c r="R210" t="n">
-        <v>2.668946743011475</v>
+        <v>2.727789163589478</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01502895355224609</v>
+        <v>0.01703286170959473</v>
       </c>
       <c r="T210" t="n">
-        <v>0</v>
+        <v>0.008008003234863281</v>
       </c>
       <c r="U210" t="n">
-        <v>2.668946743011475</v>
+        <v>2.727789163589478</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31460,18 +31460,18 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.01002192497253418</v>
+        <v>0.009758234024047852</v>
       </c>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="n">
-        <v>0.5389032363891602</v>
+        <v>0.5682032108306885</v>
       </c>
       <c r="S211" t="n">
-        <v>0.01002192497253418</v>
+        <v>0.009758234024047852</v>
       </c>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="n">
-        <v>0.5389032363891602</v>
+        <v>0.5682032108306885</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31606,22 +31606,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.01054549217224121</v>
+        <v>0.01019072532653809</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.01598572731018066</v>
+        <v>0.005750656127929688</v>
       </c>
       <c r="R212" t="n">
-        <v>1.013373136520386</v>
+        <v>1.024434328079224</v>
       </c>
       <c r="S212" t="n">
-        <v>0.01054549217224121</v>
+        <v>0.01019072532653809</v>
       </c>
       <c r="T212" t="n">
-        <v>0.01598572731018066</v>
+        <v>0.005750656127929688</v>
       </c>
       <c r="U212" t="n">
-        <v>1.013373136520386</v>
+        <v>1.024434328079224</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31756,22 +31756,22 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.01376652717590332</v>
+        <v>0.01579070091247559</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.00704193115234375</v>
+        <v>0.01769876480102539</v>
       </c>
       <c r="R213" t="n">
-        <v>1.708145141601562</v>
+        <v>1.805037260055542</v>
       </c>
       <c r="S213" t="n">
-        <v>0.01376652717590332</v>
+        <v>0.01579070091247559</v>
       </c>
       <c r="T213" t="n">
-        <v>0.00704193115234375</v>
+        <v>0.01769876480102539</v>
       </c>
       <c r="U213" t="n">
-        <v>1.708145141601562</v>
+        <v>1.805037260055542</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31906,22 +31906,22 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.01566362380981445</v>
+        <v>0.01376557350158691</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.01930975914001465</v>
+        <v>0.008011102676391602</v>
       </c>
       <c r="R214" t="n">
-        <v>2.2430579662323</v>
+        <v>2.290890216827393</v>
       </c>
       <c r="S214" t="n">
-        <v>0.01566362380981445</v>
+        <v>0.01376557350158691</v>
       </c>
       <c r="T214" t="n">
-        <v>0.01930975914001465</v>
+        <v>0.008011102676391602</v>
       </c>
       <c r="U214" t="n">
-        <v>2.2430579662323</v>
+        <v>2.290890216827393</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32054,18 +32054,18 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.01377677917480469</v>
+        <v>0.01378083229064941</v>
       </c>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="n">
-        <v>0.4152476787567139</v>
+        <v>0.4385852813720703</v>
       </c>
       <c r="S215" t="n">
-        <v>0.01377677917480469</v>
+        <v>0.01378083229064941</v>
       </c>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="n">
-        <v>0.4152476787567139</v>
+        <v>0.4385852813720703</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32198,18 +32198,18 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="n">
-        <v>0.348034143447876</v>
+        <v>0.3623220920562744</v>
       </c>
       <c r="S216" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
-        <v>0.348034143447876</v>
+        <v>0.3623220920562744</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32344,22 +32344,22 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.008199214935302734</v>
+        <v>0.01794338226318359</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.008008241653442383</v>
+        <v>0</v>
       </c>
       <c r="R217" t="n">
-        <v>2.362200021743774</v>
+        <v>2.48504376411438</v>
       </c>
       <c r="S217" t="n">
-        <v>0.008199214935302734</v>
+        <v>0.01794338226318359</v>
       </c>
       <c r="T217" t="n">
-        <v>0.008008241653442383</v>
+        <v>0</v>
       </c>
       <c r="U217" t="n">
-        <v>2.362200021743774</v>
+        <v>2.48504376411438</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32494,22 +32494,22 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.01253104209899902</v>
+        <v>0.01180672645568848</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.007517337799072266</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="R218" t="n">
-        <v>1.162506818771362</v>
+        <v>1.199335336685181</v>
       </c>
       <c r="S218" t="n">
-        <v>0.01253104209899902</v>
+        <v>0.01180672645568848</v>
       </c>
       <c r="T218" t="n">
-        <v>0.007517337799072266</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="U218" t="n">
-        <v>1.162506818771362</v>
+        <v>1.199335336685181</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32644,22 +32644,22 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.0137791633605957</v>
+        <v>0.01402187347412109</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.00819849967956543</v>
+        <v>0.003796815872192383</v>
       </c>
       <c r="R219" t="n">
-        <v>2.477569818496704</v>
+        <v>2.481870412826538</v>
       </c>
       <c r="S219" t="n">
-        <v>0.0137791633605957</v>
+        <v>0.01402187347412109</v>
       </c>
       <c r="T219" t="n">
-        <v>0.00819849967956543</v>
+        <v>0.003796815872192383</v>
       </c>
       <c r="U219" t="n">
-        <v>2.477569818496704</v>
+        <v>2.481870412826538</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
